--- a/20240523spettrometria/dati_sottrometria.xlsx
+++ b/20240523spettrometria/dati_sottrometria.xlsx
@@ -745,9 +745,11 @@
     </row>
     <row r="7" ht="14.25">
       <c r="A7" s="4">
-        <v>1</v>
-      </c>
-      <c r="B7" s="4"/>
+        <v>115</v>
+      </c>
+      <c r="B7" s="4">
+        <v>50</v>
+      </c>
       <c r="C7" s="5">
         <v>115</v>
       </c>
@@ -762,92 +764,152 @@
       </c>
     </row>
     <row r="8" ht="14.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="A8" s="4">
+        <v>131</v>
+      </c>
+      <c r="B8" s="4">
+        <v>55</v>
+      </c>
+      <c r="C8" s="5">
+        <v>131</v>
+      </c>
+      <c r="D8" s="5">
+        <v>44</v>
+      </c>
+      <c r="E8" s="6">
+        <v>131</v>
+      </c>
+      <c r="F8" s="6">
+        <v>50</v>
+      </c>
     </row>
     <row r="9" ht="14.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="A9" s="4">
+        <v>30</v>
+      </c>
+      <c r="B9" s="4">
+        <v>25</v>
+      </c>
+      <c r="C9" s="5">
+        <v>30</v>
+      </c>
+      <c r="D9" s="5">
+        <v>20</v>
+      </c>
+      <c r="E9" s="6">
+        <v>30</v>
+      </c>
+      <c r="F9" s="6">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" ht="14.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+      <c r="A10" s="4">
+        <v>130</v>
+      </c>
+      <c r="B10" s="4">
+        <v>10</v>
+      </c>
+      <c r="C10" s="5">
+        <v>131</v>
+      </c>
+      <c r="D10" s="5">
+        <v>10</v>
+      </c>
+      <c r="E10" s="6">
+        <v>131</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" ht="14.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+      <c r="A11" s="4">
+        <v>52</v>
+      </c>
+      <c r="B11" s="4">
+        <v>50</v>
+      </c>
+      <c r="C11" s="5">
+        <v>52</v>
+      </c>
+      <c r="D11" s="5">
+        <v>40</v>
+      </c>
+      <c r="E11" s="6">
+        <v>52</v>
+      </c>
+      <c r="F11" s="6">
+        <v>40</v>
+      </c>
     </row>
     <row r="12" ht="14.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="A12" s="4">
+        <v>115</v>
+      </c>
+      <c r="B12" s="4">
+        <v>35</v>
+      </c>
+      <c r="C12" s="5">
+        <v>115</v>
+      </c>
+      <c r="D12" s="5">
+        <v>30</v>
+      </c>
+      <c r="E12" s="6">
+        <v>115</v>
+      </c>
+      <c r="F12" s="6">
+        <v>30</v>
+      </c>
     </row>
     <row r="13" ht="14.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
     </row>
     <row r="14" ht="14.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
     </row>
     <row r="15" ht="14.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
     </row>
     <row r="16" ht="14.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
     </row>
     <row r="17" ht="14.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
     </row>
     <row r="18" ht="14.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>

--- a/20240523spettrometria/dati_sottrometria.xlsx
+++ b/20240523spettrometria/dati_sottrometria.xlsx
@@ -3,17 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ERRORI" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="prisma riflesso" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve">SARA deg</t>
   </si>
@@ -31,16 +32,67 @@
   </si>
   <si>
     <t xml:space="preserve">GIO prim</t>
+  </si>
+  <si>
+    <t>START</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIFLESSA deg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIFLESSA prim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIALLO deg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIALLO prim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VERDE deg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VERDE prim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLU deg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLU prim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIOLA deg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIOLA prim</t>
+  </si>
+  <si>
+    <t>LAMPADA</t>
+  </si>
+  <si>
+    <t>Hg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.000000"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.000000"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -51,8 +103,14 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11.000000"/>
+      <color theme="0" tint="0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -77,6 +135,48 @@
         <bgColor theme="5" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor theme="7" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD91C"/>
+        <bgColor rgb="FFFFD91C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF44FF00"/>
+        <bgColor rgb="FF44FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF193FFF"/>
+        <bgColor rgb="FF193FFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD21CFF"/>
+        <bgColor rgb="FFD21CFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -87,26 +187,37 @@
       <diagonal style="none"/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="7">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="2" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
     <xf fontId="0" fillId="3" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
     <xf fontId="0" fillId="4" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
+    <xf fontId="1" fillId="5" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
+    <xf fontId="2" fillId="6" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
+    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf fontId="1" fillId="3" borderId="0" numFmtId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf fontId="1" fillId="4" borderId="0" numFmtId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf fontId="3" fillId="2" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf fontId="3" fillId="3" borderId="0" numFmtId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf fontId="3" fillId="4" borderId="0" numFmtId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="1" applyFill="1"/>
     <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="2" applyFill="1"/>
     <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="3" applyFill="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="8" borderId="0" numFmtId="0" xfId="6" applyFill="1"/>
+    <xf fontId="0" fillId="9" borderId="0" numFmtId="0" xfId="2" applyFill="1"/>
+    <xf fontId="4" fillId="10" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf fontId="4" fillId="11" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
     <cellStyle name="20% - Accent6" xfId="2" builtinId="50"/>
     <cellStyle name="20% - Accent2" xfId="3" builtinId="34"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
+    <cellStyle name="Good" xfId="5" builtinId="26"/>
+    <cellStyle name="20% - Accent4" xfId="6" builtinId="42"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -917,4 +1028,367 @@
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" min="3" max="3" width="13.57421875"/>
+    <col customWidth="1" min="4" max="4" width="14.28125"/>
+    <col customWidth="1" min="5" max="5" width="17.8515625"/>
+    <col customWidth="1" min="6" max="6" width="16.57421875"/>
+    <col customWidth="1" min="7" max="7" width="11.00390625"/>
+    <col customWidth="1" min="8" max="8" width="11.140625"/>
+    <col customWidth="1" min="11" max="11" width="12.57421875"/>
+    <col customWidth="1" min="12" max="12" width="12.28125"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25">
+      <c r="A2">
+        <v>90</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2">
+        <v>105</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2" s="8">
+        <v>29</v>
+      </c>
+      <c r="F2" s="8">
+        <v>40</v>
+      </c>
+      <c r="G2" s="9">
+        <v>29</v>
+      </c>
+      <c r="H2" s="9">
+        <v>30</v>
+      </c>
+      <c r="I2" s="10">
+        <v>28</v>
+      </c>
+      <c r="J2" s="10">
+        <v>0</v>
+      </c>
+      <c r="K2" s="11">
+        <v>27</v>
+      </c>
+      <c r="L2" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3">
+        <v>120</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3" s="8">
+        <v>35</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9">
+        <v>34</v>
+      </c>
+      <c r="H3" s="9">
+        <v>40</v>
+      </c>
+      <c r="I3" s="10">
+        <v>33</v>
+      </c>
+      <c r="J3" s="10">
+        <v>10</v>
+      </c>
+      <c r="K3" s="11">
+        <v>32</v>
+      </c>
+      <c r="L3" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4">
+        <v>134</v>
+      </c>
+      <c r="D4">
+        <v>40</v>
+      </c>
+      <c r="E4" s="8">
+        <v>38</v>
+      </c>
+      <c r="F4" s="8">
+        <v>40</v>
+      </c>
+      <c r="G4" s="9">
+        <v>38</v>
+      </c>
+      <c r="H4" s="9">
+        <v>20</v>
+      </c>
+      <c r="I4" s="10">
+        <v>36</v>
+      </c>
+      <c r="J4" s="10">
+        <v>50</v>
+      </c>
+      <c r="K4" s="11">
+        <v>36</v>
+      </c>
+      <c r="L4" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="C5">
+        <v>157</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8">
+        <v>41</v>
+      </c>
+      <c r="F5" s="8">
+        <v>40</v>
+      </c>
+      <c r="G5" s="9">
+        <v>41</v>
+      </c>
+      <c r="H5" s="9">
+        <v>20</v>
+      </c>
+      <c r="I5" s="10">
+        <v>39</v>
+      </c>
+      <c r="J5" s="10">
+        <v>5</v>
+      </c>
+      <c r="K5" s="11">
+        <v>38</v>
+      </c>
+      <c r="L5" s="11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+    </row>
+    <row r="18" ht="14.25">
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+    </row>
+    <row r="19" ht="14.25">
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+    </row>
+    <row r="20" ht="14.25">
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+    </row>
+    <row r="21" ht="14.25">
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/20240523spettrometria/dati_sottrometria.xlsx
+++ b/20240523spettrometria/dati_sottrometria.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="ERRORI" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="prisma riflesso" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="PRISMA carlona" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr/>
 </workbook>
@@ -974,54 +974,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" ht="14.25">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-    </row>
-    <row r="14" ht="14.25">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-    </row>
-    <row r="15" ht="14.25">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-    </row>
-    <row r="16" ht="14.25">
-      <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-    </row>
-    <row r="17" ht="14.25">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-    </row>
-    <row r="18" ht="14.25">
-      <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-    </row>
+    <row r="13" ht="14.25"/>
+    <row r="14" ht="14.25"/>
+    <row r="15" ht="14.25"/>
+    <row r="16" ht="14.25"/>
+    <row r="17" ht="14.25"/>
+    <row r="18" ht="14.25"/>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
@@ -1226,14 +1184,36 @@
       </c>
     </row>
     <row r="6" ht="14.25">
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
+      <c r="C6">
+        <v>182</v>
+      </c>
+      <c r="D6">
+        <v>30</v>
+      </c>
+      <c r="E6" s="8">
+        <v>38</v>
+      </c>
+      <c r="F6" s="8">
+        <v>30</v>
+      </c>
+      <c r="G6" s="9">
+        <v>38</v>
+      </c>
+      <c r="H6" s="9">
+        <v>50</v>
+      </c>
+      <c r="I6" s="10">
+        <v>35</v>
+      </c>
+      <c r="J6" s="10">
+        <v>30</v>
+      </c>
+      <c r="K6" s="11">
+        <v>34</v>
+      </c>
+      <c r="L6" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" ht="14.25">
       <c r="E7" s="8"/>

--- a/20240523spettrometria/dati_sottrometria.xlsx
+++ b/20240523spettrometria/dati_sottrometria.xlsx
@@ -1216,36 +1216,108 @@
       </c>
     </row>
     <row r="7" ht="14.25">
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
+      <c r="C7">
+        <v>180</v>
+      </c>
+      <c r="D7">
+        <v>20</v>
+      </c>
+      <c r="E7" s="8">
+        <v>39</v>
+      </c>
+      <c r="F7" s="8">
+        <v>30</v>
+      </c>
+      <c r="G7" s="9">
+        <v>39</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0</v>
+      </c>
+      <c r="I7" s="10">
+        <v>36</v>
+      </c>
+      <c r="J7" s="10">
+        <v>20</v>
+      </c>
+      <c r="K7" s="11">
+        <v>35</v>
+      </c>
+      <c r="L7" s="11">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" ht="14.25">
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
+      <c r="C8">
+        <v>170</v>
+      </c>
+      <c r="D8">
+        <v>30</v>
+      </c>
+      <c r="E8" s="8">
+        <v>41</v>
+      </c>
+      <c r="F8" s="8">
+        <v>25</v>
+      </c>
+      <c r="G8" s="9">
+        <v>40</v>
+      </c>
+      <c r="H8" s="9">
+        <v>55</v>
+      </c>
+      <c r="I8" s="10">
+        <v>38</v>
+      </c>
+      <c r="J8" s="10">
+        <v>55</v>
+      </c>
+      <c r="K8" s="11">
+        <v>38</v>
+      </c>
+      <c r="L8" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" ht="14.25">
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
+      <c r="C9">
+        <v>165</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9" s="8">
+        <v>41</v>
+      </c>
+      <c r="F9" s="8">
+        <v>35</v>
+      </c>
+      <c r="G9" s="9">
+        <v>41</v>
+      </c>
+      <c r="H9" s="9">
+        <v>15</v>
+      </c>
+      <c r="I9" s="10">
+        <v>39</v>
+      </c>
+      <c r="J9" s="10">
+        <v>20</v>
+      </c>
+      <c r="K9" s="11">
+        <v>38</v>
+      </c>
+      <c r="L9" s="11">
+        <v>25</v>
+      </c>
     </row>
     <row r="10" ht="14.25">
+      <c r="C10">
+        <v>150</v>
+      </c>
+      <c r="D10">
+        <v>25</v>
+      </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="9"/>

--- a/20240523spettrometria/dati_sottrometria.xlsx
+++ b/20240523spettrometria/dati_sottrometria.xlsx
@@ -1318,24 +1318,62 @@
       <c r="D10">
         <v>25</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
+      <c r="E10" s="8">
+        <v>41</v>
+      </c>
+      <c r="F10" s="8">
+        <v>10</v>
+      </c>
+      <c r="G10" s="9">
+        <v>40</v>
+      </c>
+      <c r="H10" s="9">
+        <v>50</v>
+      </c>
+      <c r="I10" s="10">
+        <v>39</v>
+      </c>
+      <c r="J10" s="10">
+        <v>10</v>
+      </c>
+      <c r="K10" s="11">
+        <v>38</v>
+      </c>
+      <c r="L10" s="11">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" ht="14.25">
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
+      <c r="C11">
+        <v>140</v>
+      </c>
+      <c r="D11">
+        <v>30</v>
+      </c>
+      <c r="E11" s="8">
+        <v>39</v>
+      </c>
+      <c r="F11" s="8">
+        <v>45</v>
+      </c>
+      <c r="G11" s="9">
+        <v>39</v>
+      </c>
+      <c r="H11" s="9">
+        <v>25</v>
+      </c>
+      <c r="I11" s="10">
+        <v>37</v>
+      </c>
+      <c r="J11" s="10">
+        <v>55</v>
+      </c>
+      <c r="K11" s="11">
+        <v>37</v>
+      </c>
+      <c r="L11" s="11">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" ht="14.25">
       <c r="E12" s="8"/>

--- a/20240523spettrometria/dati_sottrometria.xlsx
+++ b/20240523spettrometria/dati_sottrometria.xlsx
@@ -3,11 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="ERRORI" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="PRISMA carlona" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="PRISMA" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RETICOLO" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr/>
 </workbook>
@@ -1481,4 +1482,20 @@
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/20240523spettrometria/dati_sottrometria.xlsx
+++ b/20240523spettrometria/dati_sottrometria.xlsx
@@ -3,19 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ERRORI" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="PRISMA" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RETICOLO" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="luce misteriosa" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="reticolo" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t xml:space="preserve">SARA deg</t>
   </si>
@@ -72,6 +73,66 @@
   </si>
   <si>
     <t>Hg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1 deg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1 prim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B2 deg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B2 prim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V1 deg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V1 prim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V2 deg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V2 prim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V3 deg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V3 prim</t>
+  </si>
+  <si>
+    <t>misteriosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ordine di potenza</t>
+  </si>
+  <si>
+    <t>potente</t>
+  </si>
+  <si>
+    <t>PASSO</t>
+  </si>
+  <si>
+    <t>teta</t>
+  </si>
+  <si>
+    <t>n1</t>
+  </si>
+  <si>
+    <t>n2</t>
+  </si>
+  <si>
+    <t>COLORE:</t>
+  </si>
+  <si>
+    <t>GIALLO</t>
+  </si>
+  <si>
+    <t>(SODIO)</t>
   </si>
 </sst>
 </file>
@@ -111,7 +172,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,6 +239,30 @@
         <bgColor rgb="FFD21CFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1984FF"/>
+        <bgColor rgb="FF1984FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF991CFF"/>
+        <bgColor rgb="FF991CFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBA30FF"/>
+        <bgColor rgb="FFBA30FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEE30FF"/>
+        <bgColor rgb="FFEE30FF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -197,7 +282,7 @@
     <xf fontId="2" fillId="6" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
     <xf fontId="0" fillId="7" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="3" fillId="2" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf fontId="3" fillId="3" borderId="0" numFmtId="0" xfId="2" applyFont="1" applyFill="1"/>
@@ -210,6 +295,17 @@
     <xf fontId="0" fillId="9" borderId="0" numFmtId="0" xfId="2" applyFill="1"/>
     <xf fontId="4" fillId="10" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf fontId="4" fillId="11" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="4" fillId="12" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf fontId="4" fillId="13" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf fontId="4" fillId="14" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf fontId="4" fillId="15" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1487,12 +1583,515 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
+    <sheetView topLeftCell="C1" zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col bestFit="1" min="1" max="1" width="9.76171875"/>
+    <col bestFit="1" min="3" max="3" width="12.04296875"/>
+    <col customWidth="1" min="4" max="4" width="15.8515625"/>
+    <col bestFit="1" min="5" max="5" width="10.61328125"/>
+    <col bestFit="1" min="6" max="6" width="11.57421875"/>
+    <col bestFit="1" min="7" max="7" width="10.04296875"/>
+    <col bestFit="1" min="8" max="8" width="11.00390625"/>
+    <col bestFit="1" min="9" max="9" width="7.6640625"/>
+    <col bestFit="1" min="12" max="12" width="10.5234375"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25">
+      <c r="A1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1"/>
+      <c r="C1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25">
+      <c r="A2" s="12">
+        <v>90</v>
+      </c>
+      <c r="B2"/>
+      <c r="C2" s="12">
+        <v>164</v>
+      </c>
+      <c r="D2" s="12">
+        <v>30</v>
+      </c>
+      <c r="E2" s="8">
+        <v>41</v>
+      </c>
+      <c r="F2" s="8">
+        <v>70</v>
+      </c>
+      <c r="G2" s="9">
+        <v>41</v>
+      </c>
+      <c r="H2" s="9">
+        <v>30</v>
+      </c>
+      <c r="I2" s="14">
+        <v>39</v>
+      </c>
+      <c r="J2" s="14">
+        <v>55</v>
+      </c>
+      <c r="K2" s="10">
+        <v>39</v>
+      </c>
+      <c r="L2" s="10">
+        <v>40</v>
+      </c>
+      <c r="M2" s="15">
+        <v>39</v>
+      </c>
+      <c r="N2" s="15">
+        <v>30</v>
+      </c>
+      <c r="O2" s="16">
+        <v>39</v>
+      </c>
+      <c r="P2" s="16">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="17">
+        <v>39</v>
+      </c>
+      <c r="R2" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25">
+      <c r="A3" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="A4" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+    </row>
+    <row r="18" ht="14.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+    </row>
+    <row r="19" ht="14.25">
+      <c r="D19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" t="s">
+        <v>31</v>
+      </c>
+      <c r="O19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
     <sheetView zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>300</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>

--- a/20240523spettrometria/dati_sottrometria.xlsx
+++ b/20240523spettrometria/dati_sottrometria.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ERRORI" sheetId="1" state="visible" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t xml:space="preserve">SARA deg</t>
   </si>
@@ -117,16 +117,22 @@
     <t>PASSO</t>
   </si>
   <si>
-    <t>teta</t>
-  </si>
-  <si>
     <t>n1</t>
   </si>
   <si>
     <t>n2</t>
   </si>
   <si>
+    <t>n-1</t>
+  </si>
+  <si>
+    <t>n-2</t>
+  </si>
+  <si>
     <t>COLORE:</t>
+  </si>
+  <si>
+    <t>110,30</t>
   </si>
   <si>
     <t>GIALLO</t>
@@ -282,7 +288,7 @@
     <xf fontId="2" fillId="6" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
     <xf fontId="0" fillId="7" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="3" fillId="2" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf fontId="3" fillId="3" borderId="0" numFmtId="0" xfId="2" applyFont="1" applyFill="1"/>
@@ -306,6 +312,8 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1473,104 +1481,104 @@
       </c>
     </row>
     <row r="12" ht="14.25">
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
     </row>
     <row r="13" ht="14.25">
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
     </row>
     <row r="14" ht="14.25">
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
     </row>
     <row r="15" ht="14.25">
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
     </row>
     <row r="16" ht="14.25">
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
     </row>
     <row r="17" ht="14.25">
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
     </row>
     <row r="18" ht="14.25">
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
     </row>
     <row r="19" ht="14.25">
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
     </row>
     <row r="20" ht="14.25">
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
     </row>
     <row r="21" ht="14.25">
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
@@ -2061,34 +2069,48 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="14.25">
       <c r="A1" t="s">
         <v>32</v>
       </c>
       <c r="B1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="19"/>
+      <c r="E1" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25">
       <c r="A2">
         <v>300</v>
       </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>38</v>
+      </c>
+      <c r="D2" s="20"/>
+      <c r="E2" s="19">
+        <v>80</v>
+      </c>
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/20240523spettrometria/dati_sottrometria.xlsx
+++ b/20240523spettrometria/dati_sottrometria.xlsx
@@ -3,20 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ERRORI" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="PRISMA" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="luce misteriosa" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="reticolo" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="alpha" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="deltam" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t xml:space="preserve">SARA deg</t>
   </si>
@@ -139,6 +141,18 @@
   </si>
   <si>
     <t>(SODIO)</t>
+  </si>
+  <si>
+    <t>FACCIA1deg</t>
+  </si>
+  <si>
+    <t>FACCIA1prim</t>
+  </si>
+  <si>
+    <t>FACCIA2deg</t>
+  </si>
+  <si>
+    <t>FACCIA2prim</t>
   </si>
 </sst>
 </file>
@@ -288,7 +302,7 @@
     <xf fontId="2" fillId="6" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
     <xf fontId="0" fillId="7" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="3" fillId="2" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf fontId="3" fillId="3" borderId="0" numFmtId="0" xfId="2" applyFont="1" applyFill="1"/>
@@ -304,15 +318,10 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="4" fillId="12" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf fontId="4" fillId="13" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf fontId="4" fillId="14" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf fontId="4" fillId="15" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="7">
@@ -1480,106 +1489,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" ht="14.25">
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-    </row>
-    <row r="13" ht="14.25">
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
-    </row>
-    <row r="14" ht="14.25">
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14"/>
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
-    </row>
-    <row r="15" ht="14.25">
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
-    </row>
-    <row r="16" ht="14.25">
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
-    </row>
-    <row r="17" ht="14.25">
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
-    </row>
-    <row r="18" ht="14.25">
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-    </row>
-    <row r="19" ht="14.25">
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-    </row>
-    <row r="20" ht="14.25">
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
-    </row>
-    <row r="21" ht="14.25">
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
-    </row>
+    <row r="12" ht="14.25"/>
+    <row r="13" ht="14.25"/>
+    <row r="14" ht="14.25"/>
+    <row r="15" ht="14.25"/>
+    <row r="16" ht="14.25"/>
+    <row r="17" ht="14.25"/>
+    <row r="18" ht="14.25"/>
+    <row r="19" ht="14.25"/>
+    <row r="20" ht="14.25"/>
+    <row r="21" ht="14.25"/>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
@@ -1612,8 +1531,7 @@
       <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B1"/>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D1" t="s">
@@ -1631,10 +1549,10 @@
       <c r="H1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>20</v>
       </c>
       <c r="K1" s="10" t="s">
@@ -1643,22 +1561,22 @@
       <c r="L1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="O1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="Q1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="R1" s="16" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1666,7 +1584,6 @@
       <c r="A2" s="12">
         <v>90</v>
       </c>
-      <c r="B2"/>
       <c r="C2" s="12">
         <v>164</v>
       </c>
@@ -1685,10 +1602,10 @@
       <c r="H2" s="9">
         <v>30</v>
       </c>
-      <c r="I2" s="14">
+      <c r="I2" s="13">
         <v>39</v>
       </c>
-      <c r="J2" s="14">
+      <c r="J2" s="13">
         <v>55</v>
       </c>
       <c r="K2" s="10">
@@ -1697,68 +1614,66 @@
       <c r="L2" s="10">
         <v>40</v>
       </c>
-      <c r="M2" s="15">
+      <c r="M2" s="14">
         <v>39</v>
       </c>
-      <c r="N2" s="15">
+      <c r="N2" s="14">
         <v>30</v>
       </c>
-      <c r="O2" s="16">
+      <c r="O2" s="15">
         <v>39</v>
       </c>
-      <c r="P2" s="16">
+      <c r="P2" s="15">
         <v>20</v>
       </c>
-      <c r="Q2" s="17">
+      <c r="Q2" s="16">
         <v>39</v>
       </c>
-      <c r="R2" s="17">
+      <c r="R2" s="16">
         <v>10</v>
       </c>
     </row>
     <row r="3" ht="14.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B3"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
     </row>
     <row r="4" ht="14.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B4"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
     </row>
     <row r="5" ht="14.25">
       <c r="A5" s="12"/>
@@ -1769,16 +1684,16 @@
       <c r="F5" s="8"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
     </row>
     <row r="6" ht="14.25">
       <c r="A6" s="12"/>
@@ -1789,16 +1704,16 @@
       <c r="F6" s="8"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
     </row>
     <row r="7" ht="14.25">
       <c r="A7" s="12"/>
@@ -1809,16 +1724,16 @@
       <c r="F7" s="8"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
     </row>
     <row r="8" ht="14.25">
       <c r="A8" s="12"/>
@@ -1829,16 +1744,16 @@
       <c r="F8" s="8"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
     </row>
     <row r="9" ht="14.25">
       <c r="A9" s="12"/>
@@ -1849,16 +1764,16 @@
       <c r="F9" s="8"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
     </row>
     <row r="10" ht="14.25">
       <c r="A10" s="12"/>
@@ -1869,16 +1784,16 @@
       <c r="F10" s="8"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
     </row>
     <row r="11" ht="14.25">
       <c r="A11" s="12"/>
@@ -1889,16 +1804,16 @@
       <c r="F11" s="8"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
     </row>
     <row r="12" ht="14.25">
       <c r="A12" s="12"/>
@@ -1909,16 +1824,16 @@
       <c r="F12" s="8"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
     </row>
     <row r="13" ht="14.25">
       <c r="A13" s="12"/>
@@ -1929,16 +1844,16 @@
       <c r="F13" s="8"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
     </row>
     <row r="14" ht="14.25">
       <c r="A14" s="12"/>
@@ -1949,16 +1864,16 @@
       <c r="F14" s="8"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
     </row>
     <row r="15" ht="14.25">
       <c r="A15" s="12"/>
@@ -1969,16 +1884,16 @@
       <c r="F15" s="8"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
     </row>
     <row r="16" ht="14.25">
       <c r="A16" s="12"/>
@@ -1989,16 +1904,16 @@
       <c r="F16" s="8"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
     </row>
     <row r="17" ht="14.25">
       <c r="A17" s="12"/>
@@ -2009,16 +1924,16 @@
       <c r="F17" s="8"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
     </row>
     <row r="18" ht="14.25">
       <c r="A18" s="12"/>
@@ -2029,16 +1944,16 @@
       <c r="F18" s="8"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
     </row>
     <row r="19" ht="14.25">
       <c r="D19" t="s">
@@ -2078,11 +1993,11 @@
       <c r="B1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19" t="s">
+      <c r="D1" s="7"/>
+      <c r="E1" s="7" t="s">
         <v>35</v>
       </c>
       <c r="F1" t="s">
@@ -2099,11 +2014,11 @@
       <c r="B2">
         <v>100</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="19">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7">
         <v>80</v>
       </c>
       <c r="G2" t="s">
@@ -2119,4 +2034,99 @@
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="14.421875"/>
+    <col customWidth="1" min="2" max="2" width="13.00390625"/>
+    <col customWidth="1" min="3" max="4" width="12.7109375"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25">
+      <c r="A2">
+        <v>226</v>
+      </c>
+      <c r="B2" s="17">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>286</v>
+      </c>
+      <c r="D2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25">
+      <c r="A3">
+        <v>89</v>
+      </c>
+      <c r="B3">
+        <v>50</v>
+      </c>
+      <c r="C3">
+        <v>150</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="A4">
+        <v>222</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <v>282</v>
+      </c>
+      <c r="D4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25"/>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/20240523spettrometria/dati_sottrometria.xlsx
+++ b/20240523spettrometria/dati_sottrometria.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="ERRORI" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,14 +11,15 @@
     <sheet name="luce misteriosa" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="reticolo" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="alpha" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="deltam" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="deltam_prisma" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="composto_misterioso_prisma" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t xml:space="preserve">SARA deg</t>
   </si>
@@ -153,6 +154,81 @@
   </si>
   <si>
     <t>FACCIA2prim</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROSSO deg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROSSO prim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACQUA deg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACQUA prim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIOLA2 deg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIOLA2 prim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIOLA 1 deg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIOLA 1 prim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nota: bisogna fare 360-angolo letto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POCO VISIBILE</t>
+  </si>
+  <si>
+    <t>VISIBIISSIMO</t>
+  </si>
+  <si>
+    <t>VISIBILISSIMO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gas ignoto</t>
+  </si>
+  <si>
+    <t>GIALLOdeg</t>
+  </si>
+  <si>
+    <t>GIALLOprim</t>
+  </si>
+  <si>
+    <t>VERDEdeg</t>
+  </si>
+  <si>
+    <t>VERDEprim</t>
+  </si>
+  <si>
+    <t>BLUdeg</t>
+  </si>
+  <si>
+    <t>BLUprim</t>
+  </si>
+  <si>
+    <t>VIOLA2deg</t>
+  </si>
+  <si>
+    <t>VIOLA2prim</t>
+  </si>
+  <si>
+    <t>ACQUAdeg</t>
+  </si>
+  <si>
+    <t>ACQUAprim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(quello più vicino al verde)</t>
   </si>
 </sst>
 </file>
@@ -192,7 +268,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,6 +359,30 @@
         <bgColor rgb="FFEE30FF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="2"/>
+        <bgColor indexed="2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6EEEFF"/>
+        <bgColor rgb="FF6EEEFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBB00FF"/>
+        <bgColor rgb="FFBB00FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="5"/>
+        <bgColor indexed="5"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -302,7 +402,7 @@
     <xf fontId="2" fillId="6" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
     <xf fontId="0" fillId="7" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="30">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="3" fillId="2" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf fontId="3" fillId="3" borderId="0" numFmtId="0" xfId="2" applyFont="1" applyFill="1"/>
@@ -323,6 +423,18 @@
     <xf fontId="4" fillId="14" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf fontId="4" fillId="15" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="16" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="17" borderId="0" numFmtId="0" xfId="2" applyFill="1"/>
+    <xf fontId="4" fillId="18" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf fontId="4" fillId="15" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="19" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="9" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="9" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="12" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="15" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="17" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2122,8 +2234,252 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col bestFit="1" min="1" max="1" width="9.3828125"/>
+    <col bestFit="1" min="2" max="2" width="10.7109375"/>
+    <col bestFit="1" min="3" max="3" width="11.19140625"/>
+    <col customWidth="1" min="5" max="5" width="13.28125"/>
+    <col customWidth="1" min="6" max="9" width="11.8515625"/>
+    <col bestFit="1" min="12" max="12" width="10.61328125"/>
+    <col bestFit="1" min="13" max="13" width="11.57421875"/>
+    <col customWidth="1" min="14" max="14" width="12.421875"/>
+    <col bestFit="1" customWidth="1" min="15" max="15" width="12.04296875"/>
+    <col customWidth="1" min="16" max="16" width="11.28125"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P1" s="22"/>
+      <c r="Q1"/>
+      <c r="R1"/>
+    </row>
+    <row r="2" ht="14.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>311</v>
+      </c>
+      <c r="C2">
+        <v>50</v>
+      </c>
+      <c r="D2">
+        <v>311</v>
+      </c>
+      <c r="E2">
+        <v>40</v>
+      </c>
+      <c r="F2">
+        <v>311</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="17">
+        <v>310</v>
+      </c>
+      <c r="I2" s="17">
+        <v>40</v>
+      </c>
+      <c r="J2">
+        <v>309</v>
+      </c>
+      <c r="K2">
+        <v>30</v>
+      </c>
+      <c r="L2" s="17">
+        <v>308</v>
+      </c>
+      <c r="M2" s="17">
+        <v>40</v>
+      </c>
+      <c r="N2">
+        <v>308</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="R2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25"/>
+    <row r="4" ht="14.25">
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="10.57421875"/>
+    <col customWidth="1" min="2" max="2" width="12.28125"/>
+    <col customWidth="1" min="3" max="3" width="12.421875"/>
+    <col customWidth="1" min="9" max="9" width="9.8515625"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25">
+      <c r="A1" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25">
+      <c r="A2"/>
+      <c r="B2">
+        <v>311</v>
+      </c>
+      <c r="C2">
+        <v>40</v>
+      </c>
+      <c r="D2">
+        <v>311</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>309</v>
+      </c>
+      <c r="G2">
+        <v>35</v>
+      </c>
+      <c r="H2">
+        <v>308</v>
+      </c>
+      <c r="I2">
+        <v>45</v>
+      </c>
+      <c r="J2">
+        <v>310</v>
+      </c>
+      <c r="K2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25">
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25"/>
+    <row r="5" ht="14.25"/>
+    <row r="6" ht="14.25"/>
+    <row r="7" ht="14.25"/>
+    <row r="8" ht="14.25"/>
+    <row r="9" ht="14.25"/>
+    <row r="10" ht="14.25"/>
+    <row r="11" ht="14.25"/>
+  </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>

--- a/20240523spettrometria/dati_sottrometria.xlsx
+++ b/20240523spettrometria/dati_sottrometria.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="6"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="ERRORI" sheetId="1" state="visible" r:id="rId1"/>
@@ -13,13 +13,15 @@
     <sheet name="alpha" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="deltam_prisma" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="composto_misterioso_prisma" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="prismaNA" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t xml:space="preserve">SARA deg</t>
   </si>
@@ -229,6 +231,78 @@
   </si>
   <si>
     <t xml:space="preserve">(quello più vicino al verde)</t>
+  </si>
+  <si>
+    <t>Na</t>
+  </si>
+  <si>
+    <t>CALIBRAZIONE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n1 deg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n1 prim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n2 deg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n2 prim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n3 deg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n3 prim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-n1 deg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-n1 prim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-n2 deg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-n2 prim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-n3 deg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-n3 prim</t>
+  </si>
+  <si>
+    <t>ACQUA</t>
+  </si>
+  <si>
+    <t>colore</t>
+  </si>
+  <si>
+    <t>ordine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beta 1 grad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beta 1 prim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beta 2 grad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beta 2 prim</t>
+  </si>
+  <si>
+    <t>VERDE</t>
+  </si>
+  <si>
+    <t>giallo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lampada Na</t>
   </si>
 </sst>
 </file>
@@ -268,7 +342,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -383,6 +457,12 @@
         <bgColor indexed="5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FF00B050"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -402,7 +482,7 @@
     <xf fontId="2" fillId="6" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
     <xf fontId="0" fillId="7" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="3" fillId="2" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf fontId="3" fillId="3" borderId="0" numFmtId="0" xfId="2" applyFont="1" applyFill="1"/>
@@ -422,19 +502,29 @@
     <xf fontId="4" fillId="13" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf fontId="4" fillId="14" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf fontId="4" fillId="15" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="16" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="17" borderId="0" numFmtId="0" xfId="2" applyFill="1"/>
     <xf fontId="4" fillId="18" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf fontId="4" fillId="15" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="19" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="9" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="9" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="12" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="15" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="17" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="0" fillId="19" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="19" borderId="0" numFmtId="0" xfId="0" applyFill="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="20" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2166,7 +2256,7 @@
       <c r="A1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="7" t="s">
         <v>42</v>
       </c>
       <c r="C1" t="s">
@@ -2180,7 +2270,7 @@
       <c r="A2">
         <v>226</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="7">
         <v>10</v>
       </c>
       <c r="C2">
@@ -2252,10 +2342,10 @@
       <c r="A1" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>47</v>
       </c>
       <c r="D1" s="8" t="s">
@@ -2270,10 +2360,10 @@
       <c r="G1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="18" t="s">
         <v>49</v>
       </c>
       <c r="J1" s="10" t="s">
@@ -2282,21 +2372,19 @@
       <c r="K1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="22"/>
-      <c r="Q1"/>
-      <c r="R1"/>
+      <c r="P1" s="21"/>
     </row>
     <row r="2" ht="14.25">
       <c r="A2" t="s">
@@ -2320,10 +2408,10 @@
       <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H2" s="7">
         <v>310</v>
       </c>
-      <c r="I2" s="17">
+      <c r="I2" s="7">
         <v>40</v>
       </c>
       <c r="J2">
@@ -2332,10 +2420,10 @@
       <c r="K2">
         <v>30</v>
       </c>
-      <c r="L2" s="17">
+      <c r="L2" s="7">
         <v>308</v>
       </c>
-      <c r="M2" s="17">
+      <c r="M2" s="7">
         <v>40</v>
       </c>
       <c r="N2">
@@ -2390,42 +2478,41 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="26" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="2" ht="14.25">
-      <c r="A2"/>
       <c r="B2">
         <v>311</v>
       </c>
@@ -2485,4 +2572,256 @@
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView topLeftCell="D1" zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" min="3" max="3" width="12.57421875"/>
+    <col customWidth="1" min="4" max="4" width="13.57421875"/>
+    <col customWidth="1" min="5" max="5" width="12.00390625"/>
+    <col customWidth="1" min="6" max="6" width="11.421875"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="K1" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="L1" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="M1" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="N1" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="O1" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="P1" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q1" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="R1" s="29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="22">
+        <v>10</v>
+      </c>
+      <c r="H2" s="30">
+        <v>20</v>
+      </c>
+      <c r="I2" s="31">
+        <v>21</v>
+      </c>
+      <c r="J2" s="31">
+        <v>10</v>
+      </c>
+      <c r="K2" s="31">
+        <v>32</v>
+      </c>
+      <c r="L2" s="31">
+        <v>30</v>
+      </c>
+      <c r="M2" s="31">
+        <v>349</v>
+      </c>
+      <c r="N2" s="22">
+        <v>40</v>
+      </c>
+      <c r="O2" s="31">
+        <v>339</v>
+      </c>
+      <c r="P2" s="31">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="22">
+        <v>327</v>
+      </c>
+      <c r="R2" s="22">
+        <v>32</v>
+      </c>
+      <c r="S2" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25">
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="26">
+        <v>8</v>
+      </c>
+      <c r="H3" s="26">
+        <v>40</v>
+      </c>
+      <c r="I3" s="26">
+        <v>17</v>
+      </c>
+      <c r="J3" s="26">
+        <v>35</v>
+      </c>
+      <c r="K3" s="26">
+        <v>27</v>
+      </c>
+      <c r="L3" s="26">
+        <v>0</v>
+      </c>
+      <c r="M3" s="26">
+        <v>351</v>
+      </c>
+      <c r="N3" s="26">
+        <v>18</v>
+      </c>
+      <c r="O3" s="26">
+        <v>342</v>
+      </c>
+      <c r="P3" s="26">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="26">
+        <v>332</v>
+      </c>
+      <c r="R3" s="26">
+        <v>54</v>
+      </c>
+      <c r="S3" s="26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33">
+        <v>350</v>
+      </c>
+      <c r="N4" s="33">
+        <v>0</v>
+      </c>
+      <c r="O4" s="33">
+        <v>339</v>
+      </c>
+      <c r="P4" s="33">
+        <v>45</v>
+      </c>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="A5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>339</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>21</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25"/>
+    <row r="7" ht="14.25">
+      <c r="D7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:F3"/>
+  </mergeCells>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/20240523spettrometria/dati_sottrometria.xlsx
+++ b/20240523spettrometria/dati_sottrometria.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="7"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="ERRORI" sheetId="1" state="visible" r:id="rId1"/>
@@ -14,14 +14,14 @@
     <sheet name="deltam_prisma" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="composto_misterioso_prisma" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="prismaNA" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Sheet1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="prismaIgnoto" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t xml:space="preserve">SARA deg</t>
   </si>
@@ -303,6 +303,12 @@
   </si>
   <si>
     <t xml:space="preserve">lampada Na</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gas ignoto</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -2748,12 +2754,24 @@
       <c r="F4" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
+      <c r="G4" s="33">
+        <v>9</v>
+      </c>
+      <c r="H4" s="33">
+        <v>55</v>
+      </c>
+      <c r="I4" s="33">
+        <v>20</v>
+      </c>
+      <c r="J4" s="33">
+        <v>10</v>
+      </c>
+      <c r="K4" s="33">
+        <v>31</v>
+      </c>
+      <c r="L4" s="33">
+        <v>20</v>
+      </c>
       <c r="M4" s="33">
         <v>350</v>
       </c>
@@ -2766,8 +2784,12 @@
       <c r="P4" s="33">
         <v>45</v>
       </c>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
+      <c r="Q4" s="33">
+        <v>328</v>
+      </c>
+      <c r="R4" s="33">
+        <v>40</v>
+      </c>
       <c r="S4" s="33" t="s">
         <v>91</v>
       </c>
@@ -2818,7 +2840,16 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>

--- a/20240523spettrometria/dati_sottrometria.xlsx
+++ b/20240523spettrometria/dati_sottrometria.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="8"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="ERRORI" sheetId="1" state="visible" r:id="rId1"/>
@@ -15,13 +15,15 @@
     <sheet name="composto_misterioso_prisma" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="prismaNA" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="prismaIgnoto" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="PRISMA EXTRA" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="prisma incognito 2" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t xml:space="preserve">SARA deg</t>
   </si>
@@ -308,14 +310,65 @@
     <t xml:space="preserve">gas ignoto</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t xml:space="preserve">(si vede anche la frangia blu del 4 ordine)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(abbiamo preso l'acqua più a sinistra)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(in caso di doppia riga prendiamo quella piu a sinistra)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIPRESA DATI SULL'ANGOLO MINIMA DEVIAZIONE Hg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acqua: pesa quella a sx (più grossa)</t>
+  </si>
+  <si>
+    <t>ROSSOdeg</t>
+  </si>
+  <si>
+    <t>ROSSOprim</t>
+  </si>
+  <si>
+    <t>AZZURROdeg</t>
+  </si>
+  <si>
+    <t>AZZURROprim</t>
+  </si>
+  <si>
+    <t>PRISMA</t>
+  </si>
+  <si>
+    <t>-n1</t>
+  </si>
+  <si>
+    <t>RETICOLOn1</t>
+  </si>
+  <si>
+    <t>deg</t>
+  </si>
+  <si>
+    <t>prim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RETICOLO n2</t>
+  </si>
+  <si>
+    <t>RETICOLO-n1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POTREBBE ESSERE STATO CORRETTO NELLA DIREZIONE SBAGLIATA (GIRATO DI UN GRADO)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RETICOLO -n2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
@@ -335,6 +388,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11.000000"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11.000000"/>
       <color theme="1"/>
@@ -347,8 +406,15 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11.000000"/>
+      <color theme="1" tint="0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="21">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -389,6 +455,12 @@
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor theme="7" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
@@ -469,8 +541,14 @@
         <bgColor rgb="FF00B050"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor rgb="FF0070C0"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left style="none"/>
       <right style="none"/>
@@ -478,8 +556,21 @@
       <bottom style="none"/>
       <diagonal style="none"/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="none"/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="2" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
     <xf fontId="0" fillId="3" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
@@ -487,52 +578,70 @@
     <xf fontId="1" fillId="5" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
     <xf fontId="2" fillId="6" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
     <xf fontId="0" fillId="7" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
+    <xf fontId="3" fillId="8" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="47">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="3" fillId="2" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf fontId="3" fillId="3" borderId="0" numFmtId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf fontId="3" fillId="4" borderId="0" numFmtId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf fontId="4" fillId="2" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf fontId="4" fillId="3" borderId="0" numFmtId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf fontId="4" fillId="4" borderId="0" numFmtId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="1" applyFill="1"/>
     <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="2" applyFill="1"/>
     <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="3" applyFill="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="8" borderId="0" numFmtId="0" xfId="6" applyFill="1"/>
-    <xf fontId="0" fillId="9" borderId="0" numFmtId="0" xfId="2" applyFill="1"/>
-    <xf fontId="4" fillId="10" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf fontId="4" fillId="11" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="0" fillId="9" borderId="0" numFmtId="0" xfId="6" applyFill="1"/>
+    <xf fontId="0" fillId="10" borderId="0" numFmtId="0" xfId="2" applyFill="1"/>
+    <xf fontId="5" fillId="11" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf fontId="5" fillId="12" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="4" fillId="12" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf fontId="4" fillId="13" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf fontId="4" fillId="14" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf fontId="4" fillId="15" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf fontId="5" fillId="13" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf fontId="5" fillId="14" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf fontId="5" fillId="15" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf fontId="5" fillId="16" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf fontId="0" fillId="17" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="18" borderId="0" numFmtId="0" xfId="2" applyFill="1"/>
+    <xf fontId="5" fillId="19" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf fontId="5" fillId="16" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="0" fillId="20" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="13" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="16" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="17" borderId="0" numFmtId="0" xfId="2" applyFill="1"/>
-    <xf fontId="4" fillId="18" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf fontId="4" fillId="15" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="0" fillId="19" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="9" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="12" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="15" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="17" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="18" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="0" fillId="19" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="19" borderId="0" numFmtId="0" xfId="0" applyFill="1">
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="0" fillId="20" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="20" borderId="0" numFmtId="0" xfId="0" applyFill="1">
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="20" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="21" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="22" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="22" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="18" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="9" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="4" fillId="17" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="4" fillId="9" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="6" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="4" fillId="18" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="4" fillId="22" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="3" fillId="8" borderId="0" numFmtId="0" xfId="7" applyFont="1" applyFill="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
     <cellStyle name="20% - Accent6" xfId="2" builtinId="50"/>
@@ -540,6 +649,7 @@
     <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Good" xfId="5" builtinId="26"/>
     <cellStyle name="20% - Accent4" xfId="6" builtinId="42"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1310,6 +1420,374 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="O3" s="21"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="12">
+        <v>312</v>
+      </c>
+      <c r="B4" s="12">
+        <v>0</v>
+      </c>
+      <c r="C4" s="12">
+        <v>311</v>
+      </c>
+      <c r="D4" s="12">
+        <v>40</v>
+      </c>
+      <c r="E4" s="12">
+        <v>311</v>
+      </c>
+      <c r="F4" s="12">
+        <v>20</v>
+      </c>
+      <c r="G4">
+        <v>310</v>
+      </c>
+      <c r="H4">
+        <v>40</v>
+      </c>
+      <c r="I4" s="12">
+        <v>309</v>
+      </c>
+      <c r="J4" s="12">
+        <v>35</v>
+      </c>
+      <c r="K4">
+        <v>308</v>
+      </c>
+      <c r="L4">
+        <v>40</v>
+      </c>
+      <c r="M4" s="12">
+        <v>308</v>
+      </c>
+      <c r="N4" s="12">
+        <v>5</v>
+      </c>
+      <c r="O4" s="12"/>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>312</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>311</v>
+      </c>
+      <c r="D5">
+        <v>40</v>
+      </c>
+      <c r="E5">
+        <v>311</v>
+      </c>
+      <c r="F5">
+        <v>20</v>
+      </c>
+      <c r="G5">
+        <v>310</v>
+      </c>
+      <c r="H5">
+        <v>30</v>
+      </c>
+      <c r="I5">
+        <v>309</v>
+      </c>
+      <c r="J5">
+        <v>30</v>
+      </c>
+      <c r="K5">
+        <v>308</v>
+      </c>
+      <c r="L5">
+        <v>44</v>
+      </c>
+      <c r="M5">
+        <v>308</v>
+      </c>
+      <c r="N5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="G6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="15.00390625"/>
+    <col customWidth="1" min="2" max="2" width="13.421875"/>
+    <col customWidth="1" min="3" max="3" width="11.421875"/>
+    <col customWidth="1" min="4" max="4" width="11.28125"/>
+    <col customWidth="1" min="5" max="5" width="12.28125"/>
+    <col customWidth="1" min="6" max="6" width="11.8515625"/>
+    <col customWidth="1" min="7" max="7" width="13.7109375"/>
+    <col customWidth="1" min="8" max="8" width="14.28125"/>
+    <col customWidth="1" min="11" max="11" width="13.7109375"/>
+    <col customWidth="1" min="12" max="12" width="31.140625"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25">
+      <c r="A1" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="I1" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+    </row>
+    <row r="2" ht="14.25">
+      <c r="A2">
+        <v>312</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>311</v>
+      </c>
+      <c r="D2">
+        <v>40</v>
+      </c>
+      <c r="E2">
+        <v>311</v>
+      </c>
+      <c r="F2">
+        <v>20</v>
+      </c>
+      <c r="G2">
+        <v>310</v>
+      </c>
+      <c r="H2">
+        <v>30</v>
+      </c>
+      <c r="I2">
+        <v>310</v>
+      </c>
+      <c r="J2">
+        <v>6</v>
+      </c>
+      <c r="K2" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="L2" s="29"/>
+      <c r="M2" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="P2" s="43"/>
+    </row>
+    <row r="3" ht="14.25">
+      <c r="C3" s="12">
+        <v>10</v>
+      </c>
+      <c r="D3" s="12">
+        <v>49</v>
+      </c>
+      <c r="K3" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="L3" s="29"/>
+      <c r="M3" t="s">
+        <v>107</v>
+      </c>
+      <c r="N3" t="s">
+        <v>108</v>
+      </c>
+      <c r="O3" t="s">
+        <v>107</v>
+      </c>
+      <c r="P3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="12">
+        <v>21</v>
+      </c>
+      <c r="D4" s="12">
+        <v>24</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="L4" s="45"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="A5">
+        <v>349</v>
+      </c>
+      <c r="B5">
+        <v>40</v>
+      </c>
+      <c r="C5" s="46">
+        <v>350</v>
+      </c>
+      <c r="D5" s="12">
+        <v>38</v>
+      </c>
+      <c r="E5">
+        <v>351</v>
+      </c>
+      <c r="F5">
+        <v>20</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="L5" t="s">
+        <v>111</v>
+      </c>
+      <c r="M5" s="12">
+        <v>9</v>
+      </c>
+      <c r="N5" s="12">
+        <v>49</v>
+      </c>
+      <c r="O5" s="12">
+        <v>349</v>
+      </c>
+      <c r="P5" s="12">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="C6">
+        <v>340</v>
+      </c>
+      <c r="D6">
+        <v>22</v>
+      </c>
+      <c r="K6" s="29" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+  </mergeCells>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
@@ -2583,7 +3061,7 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="100" workbookViewId="0">
+    <sheetView zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2839,15 +3317,217 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="14.25">
       <c r="A1" t="s">
         <v>94</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+    </row>
+    <row r="2" ht="14.25">
+      <c r="B2" s="34">
+        <v>352</v>
+      </c>
+      <c r="C2" s="35">
+        <v>20</v>
+      </c>
+      <c r="D2" s="35">
+        <v>344</v>
+      </c>
+      <c r="E2" s="35">
+        <v>30</v>
+      </c>
+      <c r="F2" s="35">
+        <v>336</v>
+      </c>
+      <c r="G2" s="35">
+        <v>30</v>
+      </c>
+      <c r="H2"/>
+      <c r="I2" s="32" t="s">
         <v>95</v>
       </c>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+    </row>
+    <row r="3" ht="14.25">
+      <c r="B3" s="26">
+        <v>351</v>
+      </c>
+      <c r="C3" s="26">
+        <v>15</v>
+      </c>
+      <c r="D3" s="26">
+        <v>342</v>
+      </c>
+      <c r="E3" s="26">
+        <v>33</v>
+      </c>
+      <c r="F3" s="26">
+        <v>332</v>
+      </c>
+      <c r="G3" s="36">
+        <v>56</v>
+      </c>
+      <c r="H3"/>
+      <c r="I3" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="B4" s="23">
+        <v>350</v>
+      </c>
+      <c r="C4" s="23">
+        <v>20</v>
+      </c>
+      <c r="D4" s="23">
+        <v>340</v>
+      </c>
+      <c r="E4" s="23">
+        <v>30</v>
+      </c>
+      <c r="F4" s="23">
+        <v>330</v>
+      </c>
+      <c r="G4" s="23">
+        <v>2</v>
+      </c>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="B5" s="37">
+        <v>349</v>
+      </c>
+      <c r="C5" s="37">
+        <v>51</v>
+      </c>
+      <c r="D5" s="37">
+        <v>339</v>
+      </c>
+      <c r="E5" s="37">
+        <v>20</v>
+      </c>
+      <c r="F5" s="37">
+        <v>328</v>
+      </c>
+      <c r="G5" s="37">
+        <v>0</v>
+      </c>
+      <c r="H5"/>
+      <c r="I5" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="F8"/>
+      <c r="G8" s="32"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="N11"/>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="N12"/>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="N13"/>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="N14"/>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="N15"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>

--- a/20240523spettrometria/dati_sottrometria.xlsx
+++ b/20240523spettrometria/dati_sottrometria.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="9"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ERRORI" sheetId="1" state="visible" r:id="rId1"/>
@@ -510,7 +510,7 @@
     <xf fontId="0" fillId="7" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
     <xf fontId="3" fillId="8" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="36">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="4" fillId="2" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf fontId="4" fillId="3" borderId="0" numFmtId="0" xfId="2" applyFont="1" applyFill="1"/>
@@ -531,17 +531,11 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="0" fillId="13" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="13" borderId="0" numFmtId="0" xfId="0" applyFill="1">
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="17" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="18" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="18" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="16" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="9" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
@@ -553,10 +547,6 @@
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="4" fillId="19" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf fontId="4" fillId="9" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf fontId="6" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -564,13 +554,6 @@
     <xf fontId="4" fillId="18" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1362,48 +1345,46 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" ht="14.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F1"/>
-      <c r="G1"/>
     </row>
     <row r="2" ht="14.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="25">
+      <c r="A2" s="28"/>
+      <c r="B2" s="21">
         <v>343</v>
       </c>
-      <c r="C2" s="25">
+      <c r="C2" s="21">
         <v>0</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="43" t="s">
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
     </row>
     <row r="3" ht="14.25">
-      <c r="A3" s="32"/>
+      <c r="A3" s="28"/>
       <c r="B3" s="16">
         <v>342</v>
       </c>
@@ -1412,18 +1393,18 @@
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
     </row>
     <row r="4" ht="14.25">
-      <c r="A4" s="32"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="13">
         <v>340</v>
       </c>
@@ -1436,50 +1417,40 @@
       <c r="E4" s="13">
         <v>0</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G4"/>
     </row>
     <row r="5" ht="14.25">
-      <c r="A5" s="32"/>
-      <c r="B5" s="27">
+      <c r="A5" s="28"/>
+      <c r="B5" s="23">
         <v>339</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="23">
         <v>28</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="23">
         <v>315</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="23">
         <v>1</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="G5"/>
     </row>
     <row r="6" ht="14.25">
-      <c r="B6" s="28">
+      <c r="B6" s="24">
         <v>338</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="24">
         <v>30</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6"/>
-      <c r="G6"/>
-    </row>
-    <row r="7" ht="14.25">
-      <c r="F7"/>
-      <c r="G7"/>
-    </row>
-    <row r="8" ht="14.25">
-      <c r="F8"/>
-      <c r="G8"/>
-    </row>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+    </row>
+    <row r="7" ht="14.25"/>
+    <row r="8" ht="14.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F2:N3"/>
@@ -2109,81 +2080,81 @@
       <c r="B1" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="19" t="s">
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="N1" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="P1" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="Q1" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="R1" s="18" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" ht="14.25">
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
       <c r="G2" s="12">
         <v>10</v>
       </c>
-      <c r="H2" s="20">
+      <c r="H2" s="12">
         <v>20</v>
       </c>
-      <c r="I2" s="21">
+      <c r="I2" s="19">
         <v>21</v>
       </c>
-      <c r="J2" s="21">
+      <c r="J2" s="19">
         <v>10</v>
       </c>
-      <c r="K2" s="21">
+      <c r="K2" s="19">
         <v>32</v>
       </c>
-      <c r="L2" s="21">
+      <c r="L2" s="19">
         <v>30</v>
       </c>
-      <c r="M2" s="21">
+      <c r="M2" s="19">
         <v>349</v>
       </c>
       <c r="N2" s="12">
         <v>40</v>
       </c>
-      <c r="O2" s="21">
+      <c r="O2" s="19">
         <v>339</v>
       </c>
-      <c r="P2" s="21">
+      <c r="P2" s="19">
         <v>5</v>
       </c>
       <c r="Q2" s="12">
@@ -2197,11 +2168,11 @@
       </c>
     </row>
     <row r="3" ht="14.25">
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
       <c r="G3" s="16">
         <v>8</v>
       </c>
@@ -2255,49 +2226,49 @@
       <c r="D4" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="20">
         <v>9</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="20">
         <v>55</v>
       </c>
-      <c r="I4" s="23">
+      <c r="I4" s="20">
         <v>20</v>
       </c>
-      <c r="J4" s="23">
+      <c r="J4" s="20">
         <v>10</v>
       </c>
-      <c r="K4" s="23">
+      <c r="K4" s="20">
         <v>31</v>
       </c>
-      <c r="L4" s="23">
+      <c r="L4" s="20">
         <v>20</v>
       </c>
-      <c r="M4" s="23">
+      <c r="M4" s="20">
         <v>350</v>
       </c>
-      <c r="N4" s="23">
+      <c r="N4" s="20">
         <v>0</v>
       </c>
-      <c r="O4" s="23">
+      <c r="O4" s="20">
         <v>339</v>
       </c>
-      <c r="P4" s="23">
+      <c r="P4" s="20">
         <v>45</v>
       </c>
-      <c r="Q4" s="23">
+      <c r="Q4" s="20">
         <v>328</v>
       </c>
-      <c r="R4" s="23">
+      <c r="R4" s="20">
         <v>40</v>
       </c>
-      <c r="S4" s="23" t="s">
+      <c r="S4" s="20" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2346,7 +2317,7 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
@@ -2368,60 +2339,47 @@
       <c r="A1" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="H1"/>
-      <c r="I1"/>
-      <c r="J1"/>
-      <c r="K1"/>
-      <c r="L1"/>
-      <c r="M1"/>
-      <c r="N1"/>
     </row>
     <row r="2" ht="14.25">
-      <c r="B2" s="24">
+      <c r="B2" s="21">
         <v>352</v>
       </c>
-      <c r="C2" s="25">
+      <c r="C2" s="21">
         <v>20</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="21">
         <v>344</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E2" s="21">
         <v>30</v>
       </c>
-      <c r="F2" s="25">
+      <c r="F2" s="21">
         <v>336</v>
       </c>
-      <c r="G2" s="25">
+      <c r="G2" s="21">
         <v>30</v>
       </c>
-      <c r="H2"/>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
     </row>
     <row r="3" ht="14.25">
       <c r="B3" s="16">
@@ -2439,18 +2397,12 @@
       <c r="F3" s="16">
         <v>332</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G3" s="22">
         <v>56</v>
       </c>
-      <c r="H3"/>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
     </row>
     <row r="4" ht="14.25">
       <c r="B4" s="13">
@@ -2471,109 +2423,42 @@
       <c r="G4" s="13">
         <v>2</v>
       </c>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
     </row>
     <row r="5" ht="14.25">
-      <c r="B5" s="27">
+      <c r="B5" s="23">
         <v>349</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="23">
         <v>51</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="23">
         <v>339</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="23">
         <v>20</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="23">
         <v>328</v>
       </c>
-      <c r="G5" s="27">
+      <c r="G5" s="23">
         <v>0</v>
       </c>
-      <c r="H5"/>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-    </row>
-    <row r="6" ht="14.25">
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-    </row>
-    <row r="7" ht="14.25">
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-    </row>
+    </row>
+    <row r="6" ht="14.25"/>
+    <row r="7" ht="14.25"/>
     <row r="8" ht="14.25">
-      <c r="F8"/>
-      <c r="G8" s="22"/>
-      <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8"/>
-    </row>
-    <row r="9" ht="14.25">
-      <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
-    </row>
-    <row r="10" ht="14.25">
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
-    </row>
-    <row r="11" ht="14.25">
-      <c r="N11"/>
-    </row>
-    <row r="12" ht="14.25">
-      <c r="N12"/>
-    </row>
-    <row r="13" ht="14.25">
-      <c r="N13"/>
-    </row>
-    <row r="14" ht="14.25">
-      <c r="N14"/>
-    </row>
-    <row r="15" ht="14.25">
-      <c r="N15"/>
-    </row>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" ht="14.25"/>
+    <row r="10" ht="14.25"/>
+    <row r="11" ht="14.25"/>
+    <row r="12" ht="14.25"/>
+    <row r="13" ht="14.25"/>
+    <row r="14" ht="14.25"/>
+    <row r="15" ht="14.25"/>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
@@ -2589,13 +2474,13 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="24" t="s">
         <v>66</v>
       </c>
       <c r="C1" s="8" t="s">
@@ -2610,10 +2495,10 @@
       <c r="F1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="25" t="s">
         <v>68</v>
       </c>
       <c r="I1" s="10" t="s">
@@ -2622,16 +2507,16 @@
       <c r="J1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="M1" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="N1" s="27" t="s">
         <v>72</v>
       </c>
       <c r="O1" t="s">
@@ -2639,22 +2524,22 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="32">
+      <c r="A2" s="28">
         <v>311</v>
       </c>
-      <c r="B2" s="32">
+      <c r="B2" s="28">
         <v>50</v>
       </c>
-      <c r="C2" s="32">
+      <c r="C2" s="28">
         <v>311</v>
       </c>
-      <c r="D2" s="32">
+      <c r="D2" s="28">
         <v>40</v>
       </c>
-      <c r="E2" s="32">
+      <c r="E2" s="28">
         <v>311</v>
       </c>
-      <c r="F2" s="32">
+      <c r="F2" s="28">
         <v>0</v>
       </c>
       <c r="G2">
@@ -2663,10 +2548,10 @@
       <c r="H2">
         <v>40</v>
       </c>
-      <c r="I2" s="32">
+      <c r="I2" s="28">
         <v>309</v>
       </c>
-      <c r="J2" s="32">
+      <c r="J2" s="28">
         <v>30</v>
       </c>
       <c r="K2">
@@ -2675,31 +2560,31 @@
       <c r="L2">
         <v>40</v>
       </c>
-      <c r="M2" s="32">
+      <c r="M2" s="28">
         <v>308</v>
       </c>
-      <c r="N2" s="32">
+      <c r="N2" s="28">
         <v>0</v>
       </c>
-      <c r="O2" s="33"/>
+      <c r="O2" s="29"/>
     </row>
     <row r="3">
-      <c r="A3" s="32">
+      <c r="A3" s="28">
         <v>312</v>
       </c>
-      <c r="B3" s="32">
+      <c r="B3" s="28">
         <v>0</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="28">
         <v>311</v>
       </c>
-      <c r="D3" s="32">
+      <c r="D3" s="28">
         <v>40</v>
       </c>
-      <c r="E3" s="32">
+      <c r="E3" s="28">
         <v>311</v>
       </c>
-      <c r="F3" s="32">
+      <c r="F3" s="28">
         <v>20</v>
       </c>
       <c r="G3">
@@ -2708,10 +2593,10 @@
       <c r="H3">
         <v>40</v>
       </c>
-      <c r="I3" s="32">
+      <c r="I3" s="28">
         <v>309</v>
       </c>
-      <c r="J3" s="32">
+      <c r="J3" s="28">
         <v>35</v>
       </c>
       <c r="K3">
@@ -2720,13 +2605,13 @@
       <c r="L3">
         <v>40</v>
       </c>
-      <c r="M3" s="32">
+      <c r="M3" s="28">
         <v>308</v>
       </c>
-      <c r="N3" s="32">
+      <c r="N3" s="28">
         <v>5</v>
       </c>
-      <c r="O3" s="32"/>
+      <c r="O3" s="28"/>
     </row>
     <row r="4">
       <c r="A4">
@@ -2773,30 +2658,30 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34" t="s">
+      <c r="B5" s="28"/>
+      <c r="C5" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34" t="s">
+      <c r="D5" s="28"/>
+      <c r="E5" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34" t="s">
+      <c r="F5" s="28"/>
+      <c r="G5" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34" t="s">
+      <c r="H5" s="28"/>
+      <c r="I5" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
     </row>
     <row r="6">
       <c r="G6" t="s">
@@ -2834,42 +2719,42 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="J1" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="41" t="s">
+      <c r="M1" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
     </row>
     <row r="2" ht="14.25">
       <c r="A2">
@@ -2902,20 +2787,20 @@
       <c r="J2">
         <v>6</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="M2" s="41" t="s">
+      <c r="M2" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41" t="s">
+      <c r="N2" s="35"/>
+      <c r="O2" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="P2" s="41"/>
+      <c r="P2" s="35"/>
     </row>
     <row r="3" ht="14.25">
       <c r="A3">
@@ -2924,10 +2809,10 @@
       <c r="B3">
         <v>225</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="28">
         <v>10</v>
       </c>
-      <c r="D3" s="32">
+      <c r="D3" s="28">
         <v>15</v>
       </c>
       <c r="E3">
@@ -2948,10 +2833,10 @@
       <c r="J3">
         <v>56</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="L3" s="19"/>
+      <c r="L3" s="18"/>
       <c r="M3" t="s">
         <v>86</v>
       </c>
@@ -2966,16 +2851,16 @@
       </c>
     </row>
     <row r="4" ht="14.25">
-      <c r="A4" s="35">
+      <c r="A4" s="7">
         <v>21</v>
       </c>
-      <c r="B4" s="35">
+      <c r="B4" s="7">
         <v>27</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="28">
         <v>20</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="28">
         <v>30</v>
       </c>
       <c r="E4">
@@ -2996,10 +2881,10 @@
       <c r="J4">
         <v>20</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="L4" s="42" t="s">
+      <c r="L4" s="18" t="s">
         <v>89</v>
       </c>
       <c r="M4">
@@ -3016,16 +2901,16 @@
       </c>
     </row>
     <row r="5" ht="14.25">
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="K5" s="19"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="K5" s="18"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
     </row>
     <row r="6" ht="14.25">
-      <c r="K6" s="19"/>
+      <c r="K6" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/20240523spettrometria/dati_sottrometria.xlsx
+++ b/20240523spettrometria/dati_sottrometria.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="ERRORI" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,18 +11,17 @@
     <sheet name="alpha" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="composto_misterioso_prisma" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="reticolo300" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Reticolo 300 ma mejo" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="reticoloIgnoto" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="PRISMA EXTRA" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="incognito 2" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="reticolo600" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="reticoloIgnoto" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="PRISMA Hg" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="incognito 2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="reticolo600" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t xml:space="preserve">SARA deg</t>
   </si>
@@ -246,13 +245,25 @@
     <t xml:space="preserve">RIPRESA DATI SULL'ANGOLO MINIMA DEVIAZIONE Hg</t>
   </si>
   <si>
-    <t xml:space="preserve">POCO VISIBILE</t>
-  </si>
-  <si>
-    <t>VISIBIISSIMO</t>
+    <t xml:space="preserve">ROSSO:poco visibile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIALLO: molto visibile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VERDE: molto visibile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACQUA: meno ma visibile</t>
   </si>
   <si>
     <t xml:space="preserve">acqua: pesa quella a sx (più grossa)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLU: molto visibile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIOLA12: poco visibili</t>
   </si>
   <si>
     <t>ROSSOdeg</t>
@@ -510,7 +521,7 @@
     <xf fontId="0" fillId="7" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
     <xf fontId="3" fillId="8" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="4" fillId="2" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf fontId="4" fillId="3" borderId="0" numFmtId="0" xfId="2" applyFont="1" applyFill="1"/>
@@ -547,6 +558,7 @@
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="4" fillId="19" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf fontId="4" fillId="9" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf fontId="6" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1335,133 +1347,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData>
-    <row r="1" ht="14.25">
-      <c r="A1" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="21">
-        <v>343</v>
-      </c>
-      <c r="C2" s="21">
-        <v>0</v>
-      </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-    </row>
-    <row r="3" ht="14.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="16">
-        <v>342</v>
-      </c>
-      <c r="C3" s="16">
-        <v>45</v>
-      </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-    </row>
-    <row r="4" ht="14.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="13">
-        <v>340</v>
-      </c>
-      <c r="C4" s="13">
-        <v>10</v>
-      </c>
-      <c r="D4" s="13">
-        <v>317</v>
-      </c>
-      <c r="E4" s="13">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25">
-      <c r="A5" s="28"/>
-      <c r="B5" s="23">
-        <v>339</v>
-      </c>
-      <c r="C5" s="23">
-        <v>28</v>
-      </c>
-      <c r="D5" s="23">
-        <v>315</v>
-      </c>
-      <c r="E5" s="23">
-        <v>1</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25">
-      <c r="B6" s="24">
-        <v>338</v>
-      </c>
-      <c r="C6" s="24">
-        <v>30</v>
-      </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-    </row>
-    <row r="7" ht="14.25"/>
-    <row r="8" ht="14.25"/>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F2:N3"/>
-  </mergeCells>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
@@ -2318,7 +2203,132 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" ht="14.25">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25">
+      <c r="B2" s="21">
+        <v>352</v>
+      </c>
+      <c r="C2" s="21">
+        <v>20</v>
+      </c>
+      <c r="D2" s="21">
+        <v>344</v>
+      </c>
+      <c r="E2" s="21">
+        <v>30</v>
+      </c>
+      <c r="F2" s="21">
+        <v>336</v>
+      </c>
+      <c r="G2" s="21">
+        <v>30</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25">
+      <c r="B3" s="16">
+        <v>351</v>
+      </c>
+      <c r="C3" s="16">
+        <v>15</v>
+      </c>
+      <c r="D3" s="16">
+        <v>342</v>
+      </c>
+      <c r="E3" s="16">
+        <v>33</v>
+      </c>
+      <c r="F3" s="16">
+        <v>332</v>
+      </c>
+      <c r="G3" s="22">
+        <v>56</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="B4" s="13">
+        <v>350</v>
+      </c>
+      <c r="C4" s="13">
+        <v>20</v>
+      </c>
+      <c r="D4" s="13">
+        <v>340</v>
+      </c>
+      <c r="E4" s="13">
+        <v>30</v>
+      </c>
+      <c r="F4" s="13">
+        <v>330</v>
+      </c>
+      <c r="G4" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="B5" s="23">
+        <v>349</v>
+      </c>
+      <c r="C5" s="23">
+        <v>51</v>
+      </c>
+      <c r="D5" s="23">
+        <v>339</v>
+      </c>
+      <c r="E5" s="23">
+        <v>20</v>
+      </c>
+      <c r="F5" s="23">
+        <v>328</v>
+      </c>
+      <c r="G5" s="23">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25"/>
+    <row r="7" ht="14.25"/>
+    <row r="8" ht="14.25">
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" ht="14.25"/>
+    <row r="10" ht="14.25"/>
+    <row r="11" ht="14.25"/>
+    <row r="12" ht="14.25"/>
+    <row r="13" ht="14.25"/>
+    <row r="14" ht="14.25"/>
+    <row r="15" ht="14.25"/>
+  </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
@@ -2335,130 +2345,244 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" ht="14.25">
-      <c r="A1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="18" t="s">
+    <row r="1">
+      <c r="A1" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="O1"/>
+      <c r="P1"/>
+      <c r="Q1"/>
+      <c r="R1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="28">
+        <v>311</v>
+      </c>
+      <c r="B2" s="28">
+        <v>50</v>
+      </c>
+      <c r="C2" s="28">
+        <v>311</v>
+      </c>
+      <c r="D2" s="28">
+        <v>40</v>
+      </c>
+      <c r="E2" s="28">
+        <v>311</v>
+      </c>
+      <c r="F2" s="28">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>310</v>
+      </c>
+      <c r="H2">
+        <v>40</v>
+      </c>
+      <c r="I2" s="28">
+        <v>309</v>
+      </c>
+      <c r="J2" s="28">
+        <v>30</v>
+      </c>
+      <c r="K2">
+        <v>308</v>
+      </c>
+      <c r="L2">
+        <v>40</v>
+      </c>
+      <c r="M2" s="28">
+        <v>308</v>
+      </c>
+      <c r="N2" s="28">
+        <v>0</v>
+      </c>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="29"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="28">
+        <v>312</v>
+      </c>
+      <c r="B3" s="28">
+        <v>0</v>
+      </c>
+      <c r="C3" s="28">
+        <v>311</v>
+      </c>
+      <c r="D3" s="28">
+        <v>40</v>
+      </c>
+      <c r="E3" s="28">
+        <v>311</v>
+      </c>
+      <c r="F3" s="28">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <v>310</v>
+      </c>
+      <c r="H3">
+        <v>40</v>
+      </c>
+      <c r="I3" s="28">
+        <v>309</v>
+      </c>
+      <c r="J3" s="28">
+        <v>35</v>
+      </c>
+      <c r="K3">
+        <v>308</v>
+      </c>
+      <c r="L3">
+        <v>40</v>
+      </c>
+      <c r="M3" s="28">
+        <v>308</v>
+      </c>
+      <c r="N3" s="28">
+        <v>5</v>
+      </c>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>312</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>311</v>
+      </c>
+      <c r="D4">
+        <v>40</v>
+      </c>
+      <c r="E4">
+        <v>311</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+      <c r="G4">
+        <v>310</v>
+      </c>
+      <c r="H4">
+        <v>30</v>
+      </c>
+      <c r="I4">
+        <v>309</v>
+      </c>
+      <c r="J4">
+        <v>30</v>
+      </c>
+      <c r="K4">
+        <v>308</v>
+      </c>
+      <c r="L4">
+        <v>44</v>
+      </c>
+      <c r="M4">
+        <v>308</v>
+      </c>
+      <c r="N4">
         <v>38</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25">
-      <c r="B2" s="21">
-        <v>352</v>
-      </c>
-      <c r="C2" s="21">
-        <v>20</v>
-      </c>
-      <c r="D2" s="21">
-        <v>344</v>
-      </c>
-      <c r="E2" s="21">
-        <v>30</v>
-      </c>
-      <c r="F2" s="21">
-        <v>336</v>
-      </c>
-      <c r="G2" s="21">
-        <v>30</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25">
-      <c r="B3" s="16">
-        <v>351</v>
-      </c>
-      <c r="C3" s="16">
-        <v>15</v>
-      </c>
-      <c r="D3" s="16">
-        <v>342</v>
-      </c>
-      <c r="E3" s="16">
-        <v>33</v>
-      </c>
-      <c r="F3" s="16">
-        <v>332</v>
-      </c>
-      <c r="G3" s="22">
-        <v>56</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25">
-      <c r="B4" s="13">
-        <v>350</v>
-      </c>
-      <c r="C4" s="13">
-        <v>20</v>
-      </c>
-      <c r="D4" s="13">
-        <v>340</v>
-      </c>
-      <c r="E4" s="13">
-        <v>30</v>
-      </c>
-      <c r="F4" s="13">
-        <v>330</v>
-      </c>
-      <c r="G4" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25">
-      <c r="B5" s="23">
-        <v>349</v>
-      </c>
-      <c r="C5" s="23">
-        <v>51</v>
-      </c>
-      <c r="D5" s="23">
-        <v>339</v>
-      </c>
-      <c r="E5" s="23">
-        <v>20</v>
-      </c>
-      <c r="F5" s="23">
-        <v>328</v>
-      </c>
-      <c r="G5" s="23">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25"/>
-    <row r="7" ht="14.25"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="R6" t="s">
+        <v>77</v>
+      </c>
+      <c r="T6" s="28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="R7" t="s">
+        <v>79</v>
+      </c>
+    </row>
     <row r="8" ht="14.25">
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" ht="14.25"/>
-    <row r="10" ht="14.25"/>
-    <row r="11" ht="14.25"/>
-    <row r="12" ht="14.25"/>
-    <row r="13" ht="14.25"/>
-    <row r="14" ht="14.25"/>
-    <row r="15" ht="14.25"/>
+      <c r="R8" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
@@ -2468,236 +2592,6 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="L1" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="M1" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="N1" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="O1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="28">
-        <v>311</v>
-      </c>
-      <c r="B2" s="28">
-        <v>50</v>
-      </c>
-      <c r="C2" s="28">
-        <v>311</v>
-      </c>
-      <c r="D2" s="28">
-        <v>40</v>
-      </c>
-      <c r="E2" s="28">
-        <v>311</v>
-      </c>
-      <c r="F2" s="28">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>310</v>
-      </c>
-      <c r="H2">
-        <v>40</v>
-      </c>
-      <c r="I2" s="28">
-        <v>309</v>
-      </c>
-      <c r="J2" s="28">
-        <v>30</v>
-      </c>
-      <c r="K2">
-        <v>308</v>
-      </c>
-      <c r="L2">
-        <v>40</v>
-      </c>
-      <c r="M2" s="28">
-        <v>308</v>
-      </c>
-      <c r="N2" s="28">
-        <v>0</v>
-      </c>
-      <c r="O2" s="29"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="28">
-        <v>312</v>
-      </c>
-      <c r="B3" s="28">
-        <v>0</v>
-      </c>
-      <c r="C3" s="28">
-        <v>311</v>
-      </c>
-      <c r="D3" s="28">
-        <v>40</v>
-      </c>
-      <c r="E3" s="28">
-        <v>311</v>
-      </c>
-      <c r="F3" s="28">
-        <v>20</v>
-      </c>
-      <c r="G3">
-        <v>310</v>
-      </c>
-      <c r="H3">
-        <v>40</v>
-      </c>
-      <c r="I3" s="28">
-        <v>309</v>
-      </c>
-      <c r="J3" s="28">
-        <v>35</v>
-      </c>
-      <c r="K3">
-        <v>308</v>
-      </c>
-      <c r="L3">
-        <v>40</v>
-      </c>
-      <c r="M3" s="28">
-        <v>308</v>
-      </c>
-      <c r="N3" s="28">
-        <v>5</v>
-      </c>
-      <c r="O3" s="28"/>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>312</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>311</v>
-      </c>
-      <c r="D4">
-        <v>40</v>
-      </c>
-      <c r="E4">
-        <v>311</v>
-      </c>
-      <c r="F4">
-        <v>20</v>
-      </c>
-      <c r="G4">
-        <v>310</v>
-      </c>
-      <c r="H4">
-        <v>30</v>
-      </c>
-      <c r="I4">
-        <v>309</v>
-      </c>
-      <c r="J4">
-        <v>30</v>
-      </c>
-      <c r="K4">
-        <v>308</v>
-      </c>
-      <c r="L4">
-        <v>44</v>
-      </c>
-      <c r="M4">
-        <v>308</v>
-      </c>
-      <c r="N4">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-    </row>
-    <row r="6">
-      <c r="G6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7"/>
-  </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView zoomScale="100" workbookViewId="0">
@@ -2719,42 +2613,42 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
-      <c r="A1" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" s="31" t="s">
+      <c r="A1" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="H1" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="I1" s="34" t="s">
+      <c r="G1" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="35" t="s">
+      <c r="M1" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
     </row>
     <row r="2" ht="14.25">
       <c r="A2">
@@ -2788,19 +2682,19 @@
         <v>6</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="M2" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="P2" s="35"/>
+        <v>86</v>
+      </c>
+      <c r="M2" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="P2" s="36"/>
     </row>
     <row r="3" ht="14.25">
       <c r="A3">
@@ -2834,20 +2728,20 @@
         <v>56</v>
       </c>
       <c r="K3" s="18" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="L3" s="18"/>
       <c r="M3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="N3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="O3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="P3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" ht="14.25">
@@ -2882,10 +2776,10 @@
         <v>20</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="M4">
         <v>20</v>
@@ -2923,4 +2817,131 @@
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" ht="14.25">
+      <c r="A1" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25">
+      <c r="A2" s="28"/>
+      <c r="B2" s="21">
+        <v>343</v>
+      </c>
+      <c r="C2" s="21">
+        <v>0</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+    </row>
+    <row r="3" ht="14.25">
+      <c r="A3" s="28"/>
+      <c r="B3" s="16">
+        <v>342</v>
+      </c>
+      <c r="C3" s="16">
+        <v>45</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="A4" s="28"/>
+      <c r="B4" s="13">
+        <v>340</v>
+      </c>
+      <c r="C4" s="13">
+        <v>10</v>
+      </c>
+      <c r="D4" s="13">
+        <v>317</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="A5" s="28"/>
+      <c r="B5" s="23">
+        <v>339</v>
+      </c>
+      <c r="C5" s="23">
+        <v>28</v>
+      </c>
+      <c r="D5" s="23">
+        <v>315</v>
+      </c>
+      <c r="E5" s="23">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="B6" s="24">
+        <v>338</v>
+      </c>
+      <c r="C6" s="24">
+        <v>30</v>
+      </c>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+    </row>
+    <row r="7" ht="14.25"/>
+    <row r="8" ht="14.25"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F2:N3"/>
+  </mergeCells>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/20240523spettrometria/dati_sottrometria.xlsx
+++ b/20240523spettrometria/dati_sottrometria.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="6"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ERRORI" sheetId="1" state="visible" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <si>
     <t xml:space="preserve">SARA deg</t>
   </si>
@@ -95,6 +95,15 @@
     <t xml:space="preserve">Gas ignoto</t>
   </si>
   <si>
+    <t>DEG</t>
+  </si>
+  <si>
+    <t>PRIM</t>
+  </si>
+  <si>
+    <t>colore</t>
+  </si>
+  <si>
     <t>GIALLOdeg</t>
   </si>
   <si>
@@ -125,10 +134,43 @@
     <t>ACQUAprim</t>
   </si>
   <si>
+    <t>GIALLO</t>
+  </si>
+  <si>
     <t>VISIBILISSIMO</t>
   </si>
   <si>
-    <t xml:space="preserve">(quello più vicino al verde)</t>
+    <t>giallo</t>
+  </si>
+  <si>
+    <t>VERDE</t>
+  </si>
+  <si>
+    <t>verde</t>
+  </si>
+  <si>
+    <t>BLU</t>
+  </si>
+  <si>
+    <t>blu</t>
+  </si>
+  <si>
+    <t>ACQUA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">doppio (presa frangia più prossima al blu)</t>
+  </si>
+  <si>
+    <t>viola</t>
+  </si>
+  <si>
+    <t>VIOLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poco visibile</t>
+  </si>
+  <si>
+    <t>acqua</t>
   </si>
   <si>
     <t>Na</t>
@@ -173,15 +215,6 @@
     <t xml:space="preserve">-n3 prim</t>
   </si>
   <si>
-    <t>GIALLO</t>
-  </si>
-  <si>
-    <t>ACQUA</t>
-  </si>
-  <si>
-    <t>colore</t>
-  </si>
-  <si>
     <t>ordine</t>
   </si>
   <si>
@@ -195,12 +228,6 @@
   </si>
   <si>
     <t xml:space="preserve">beta 2 prim</t>
-  </si>
-  <si>
-    <t>VERDE</t>
-  </si>
-  <si>
-    <t>giallo</t>
   </si>
   <si>
     <t xml:space="preserve">lampada Na</t>
@@ -521,7 +548,7 @@
     <xf fontId="0" fillId="7" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
     <xf fontId="3" fillId="8" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="4" fillId="2" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf fontId="4" fillId="3" borderId="0" numFmtId="0" xfId="2" applyFont="1" applyFill="1"/>
@@ -534,6 +561,8 @@
     <xf fontId="0" fillId="10" borderId="0" numFmtId="0" xfId="2" applyFill="1"/>
     <xf fontId="5" fillId="11" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf fontId="5" fillId="12" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="2" fillId="6" borderId="0" numFmtId="0" xfId="5" applyFont="1" applyFill="1"/>
+    <xf fontId="0" fillId="13" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="13" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="14" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
@@ -558,7 +587,6 @@
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="4" fillId="19" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf fontId="4" fillId="9" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf fontId="6" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1840,10 +1868,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.57421875"/>
-    <col customWidth="1" min="2" max="2" width="12.28125"/>
-    <col customWidth="1" min="3" max="3" width="12.421875"/>
-    <col customWidth="1" min="9" max="9" width="9.8515625"/>
+    <col customWidth="1" min="1" max="4" width="10.57421875"/>
+    <col customWidth="1" min="5" max="5" width="12.28125"/>
+    <col customWidth="1" min="6" max="6" width="12.421875"/>
+    <col customWidth="1" min="12" max="12" width="9.8515625"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
@@ -1856,7 +1884,7 @@
       <c r="C1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>26</v>
       </c>
       <c r="E1" s="13" t="s">
@@ -1865,71 +1893,146 @@
       <c r="F1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="15" t="s">
         <v>29</v>
       </c>
       <c r="H1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="16" t="s">
         <v>31</v>
       </c>
       <c r="J1" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="17" t="s">
         <v>33</v>
       </c>
+      <c r="L1" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="2" ht="14.25">
-      <c r="B2">
+      <c r="B2" s="12">
         <v>311</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="12">
         <v>40</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2">
         <v>311</v>
       </c>
-      <c r="E2">
+      <c r="F2">
+        <v>40</v>
+      </c>
+      <c r="G2">
+        <v>311</v>
+      </c>
+      <c r="H2">
         <v>20</v>
       </c>
-      <c r="F2">
+      <c r="I2">
         <v>309</v>
       </c>
-      <c r="G2">
+      <c r="J2">
         <v>35</v>
       </c>
-      <c r="H2">
+      <c r="K2">
         <v>308</v>
       </c>
-      <c r="I2">
+      <c r="L2">
         <v>45</v>
       </c>
-      <c r="J2">
+      <c r="M2">
         <v>310</v>
       </c>
-      <c r="K2">
+      <c r="N2">
         <v>40</v>
       </c>
+      <c r="O2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="3" ht="14.25">
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="B3" s="12">
+        <v>311</v>
+      </c>
+      <c r="C3" s="12">
+        <v>20</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="B4" s="12">
+        <v>309</v>
+      </c>
+      <c r="C4" s="12">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" ht="14.25"/>
-    <row r="5" ht="14.25"/>
-    <row r="6" ht="14.25"/>
+      <c r="D4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="B5" s="12">
+        <v>308</v>
+      </c>
+      <c r="C5" s="12">
+        <v>45</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" t="s">
+        <v>47</v>
+      </c>
+      <c r="P5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="B6" s="12">
+        <v>310</v>
+      </c>
+      <c r="C6" s="12">
+        <v>40</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
     <row r="7" ht="14.25"/>
     <row r="8" ht="14.25"/>
     <row r="9" ht="14.25"/>
@@ -1960,206 +2063,206 @@
   <sheetData>
     <row r="1" ht="14.25">
       <c r="A1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="R1" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="14">
+        <v>10</v>
+      </c>
+      <c r="H2" s="14">
+        <v>20</v>
+      </c>
+      <c r="I2" s="21">
+        <v>21</v>
+      </c>
+      <c r="J2" s="21">
+        <v>10</v>
+      </c>
+      <c r="K2" s="21">
+        <v>32</v>
+      </c>
+      <c r="L2" s="21">
+        <v>30</v>
+      </c>
+      <c r="M2" s="21">
+        <v>349</v>
+      </c>
+      <c r="N2" s="14">
+        <v>40</v>
+      </c>
+      <c r="O2" s="21">
+        <v>339</v>
+      </c>
+      <c r="P2" s="21">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="14">
+        <v>327</v>
+      </c>
+      <c r="R2" s="14">
+        <v>32</v>
+      </c>
+      <c r="S2" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" s="18" t="s">
+    </row>
+    <row r="3" ht="14.25">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="18">
+        <v>8</v>
+      </c>
+      <c r="H3" s="18">
         <v>40</v>
       </c>
-      <c r="J1" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="M1" s="18" t="s">
+      <c r="I3" s="18">
+        <v>17</v>
+      </c>
+      <c r="J3" s="18">
+        <v>35</v>
+      </c>
+      <c r="K3" s="18">
+        <v>27</v>
+      </c>
+      <c r="L3" s="18">
+        <v>0</v>
+      </c>
+      <c r="M3" s="18">
+        <v>351</v>
+      </c>
+      <c r="N3" s="18">
+        <v>18</v>
+      </c>
+      <c r="O3" s="18">
+        <v>342</v>
+      </c>
+      <c r="P3" s="18">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="18">
+        <v>332</v>
+      </c>
+      <c r="R3" s="18">
+        <v>54</v>
+      </c>
+      <c r="S3" s="18" t="s">
         <v>44</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="O1" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="P1" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q1" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="R1" s="18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25">
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="12">
-        <v>10</v>
-      </c>
-      <c r="H2" s="12">
-        <v>20</v>
-      </c>
-      <c r="I2" s="19">
-        <v>21</v>
-      </c>
-      <c r="J2" s="19">
-        <v>10</v>
-      </c>
-      <c r="K2" s="19">
-        <v>32</v>
-      </c>
-      <c r="L2" s="19">
-        <v>30</v>
-      </c>
-      <c r="M2" s="19">
-        <v>349</v>
-      </c>
-      <c r="N2" s="12">
-        <v>40</v>
-      </c>
-      <c r="O2" s="19">
-        <v>339</v>
-      </c>
-      <c r="P2" s="19">
-        <v>5</v>
-      </c>
-      <c r="Q2" s="12">
-        <v>327</v>
-      </c>
-      <c r="R2" s="12">
-        <v>32</v>
-      </c>
-      <c r="S2" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25">
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="16">
-        <v>8</v>
-      </c>
-      <c r="H3" s="16">
-        <v>40</v>
-      </c>
-      <c r="I3" s="16">
-        <v>17</v>
-      </c>
-      <c r="J3" s="16">
-        <v>35</v>
-      </c>
-      <c r="K3" s="16">
-        <v>27</v>
-      </c>
-      <c r="L3" s="16">
-        <v>0</v>
-      </c>
-      <c r="M3" s="16">
-        <v>351</v>
-      </c>
-      <c r="N3" s="16">
-        <v>18</v>
-      </c>
-      <c r="O3" s="16">
-        <v>342</v>
-      </c>
-      <c r="P3" s="16">
-        <v>20</v>
-      </c>
-      <c r="Q3" s="16">
-        <v>332</v>
-      </c>
-      <c r="R3" s="16">
-        <v>54</v>
-      </c>
-      <c r="S3" s="16" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="4" ht="14.25">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="22">
+        <v>9</v>
+      </c>
+      <c r="H4" s="22">
         <v>55</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" s="20">
-        <v>9</v>
-      </c>
-      <c r="H4" s="20">
-        <v>55</v>
-      </c>
-      <c r="I4" s="20">
+      <c r="I4" s="22">
         <v>20</v>
       </c>
-      <c r="J4" s="20">
+      <c r="J4" s="22">
         <v>10</v>
       </c>
-      <c r="K4" s="20">
+      <c r="K4" s="22">
         <v>31</v>
       </c>
-      <c r="L4" s="20">
+      <c r="L4" s="22">
         <v>20</v>
       </c>
-      <c r="M4" s="20">
+      <c r="M4" s="22">
         <v>350</v>
       </c>
-      <c r="N4" s="20">
+      <c r="N4" s="22">
         <v>0</v>
       </c>
-      <c r="O4" s="20">
+      <c r="O4" s="22">
         <v>339</v>
       </c>
-      <c r="P4" s="20">
+      <c r="P4" s="22">
         <v>45</v>
       </c>
-      <c r="Q4" s="20">
+      <c r="Q4" s="22">
         <v>328</v>
       </c>
-      <c r="R4" s="20">
+      <c r="R4" s="22">
         <v>40</v>
       </c>
-      <c r="S4" s="20" t="s">
-        <v>58</v>
+      <c r="S4" s="22" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="5" ht="14.25">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -2180,7 +2283,7 @@
     <row r="6" ht="14.25"/>
     <row r="7" ht="14.25">
       <c r="D7" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" ht="14.25"/>
@@ -2206,114 +2309,114 @@
   <sheetData>
     <row r="1" ht="14.25">
       <c r="A1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>43</v>
+        <v>70</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="2" ht="14.25">
-      <c r="B2" s="21">
+      <c r="B2" s="23">
         <v>352</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="23">
         <v>20</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="23">
         <v>344</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="23">
         <v>30</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F2" s="23">
         <v>336</v>
       </c>
-      <c r="G2" s="21">
+      <c r="G2" s="23">
         <v>30</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" ht="14.25">
-      <c r="B3" s="16">
+      <c r="B3" s="18">
         <v>351</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="18">
         <v>15</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="18">
         <v>342</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="18">
         <v>33</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="18">
         <v>332</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="24">
         <v>56</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" ht="14.25">
-      <c r="B4" s="13">
+      <c r="B4" s="15">
         <v>350</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="15">
         <v>20</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="15">
         <v>340</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="15">
         <v>30</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="15">
         <v>330</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="5" ht="14.25">
-      <c r="B5" s="23">
+      <c r="B5" s="25">
         <v>349</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="25">
         <v>51</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="25">
         <v>339</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="25">
         <v>20</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="25">
         <v>328</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="25">
         <v>0</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" ht="14.25"/>
@@ -2346,11 +2449,11 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>66</v>
+      <c r="A1" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>75</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>9</v>
@@ -2364,11 +2467,11 @@
       <c r="F1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>68</v>
+      <c r="G1" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>77</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>13</v>
@@ -2376,42 +2479,39 @@
       <c r="J1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="L1" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="M1" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="N1" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="O1"/>
-      <c r="P1"/>
-      <c r="Q1"/>
+      <c r="K1" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="M1" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="N1" s="29" t="s">
+        <v>81</v>
+      </c>
       <c r="R1" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="28">
+      <c r="A2" s="30">
         <v>311</v>
       </c>
-      <c r="B2" s="28">
+      <c r="B2" s="30">
         <v>50</v>
       </c>
-      <c r="C2" s="28">
+      <c r="C2" s="30">
         <v>311</v>
       </c>
-      <c r="D2" s="28">
+      <c r="D2" s="30">
         <v>40</v>
       </c>
-      <c r="E2" s="28">
+      <c r="E2" s="30">
         <v>311</v>
       </c>
-      <c r="F2" s="28">
+      <c r="F2" s="30">
         <v>0</v>
       </c>
       <c r="G2">
@@ -2420,10 +2520,10 @@
       <c r="H2">
         <v>40</v>
       </c>
-      <c r="I2" s="28">
+      <c r="I2" s="30">
         <v>309</v>
       </c>
-      <c r="J2" s="28">
+      <c r="J2" s="30">
         <v>30</v>
       </c>
       <c r="K2">
@@ -2432,34 +2532,34 @@
       <c r="L2">
         <v>40</v>
       </c>
-      <c r="M2" s="28">
+      <c r="M2" s="30">
         <v>308</v>
       </c>
-      <c r="N2" s="28">
+      <c r="N2" s="30">
         <v>0</v>
       </c>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="29"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="31"/>
     </row>
     <row r="3">
-      <c r="A3" s="28">
+      <c r="A3" s="30">
         <v>312</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="30">
         <v>0</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="30">
         <v>311</v>
       </c>
-      <c r="D3" s="28">
+      <c r="D3" s="30">
         <v>40</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E3" s="30">
         <v>311</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="30">
         <v>20</v>
       </c>
       <c r="G3">
@@ -2468,10 +2568,10 @@
       <c r="H3">
         <v>40</v>
       </c>
-      <c r="I3" s="28">
+      <c r="I3" s="30">
         <v>309</v>
       </c>
-      <c r="J3" s="28">
+      <c r="J3" s="30">
         <v>35</v>
       </c>
       <c r="K3">
@@ -2480,17 +2580,17 @@
       <c r="L3">
         <v>40</v>
       </c>
-      <c r="M3" s="28">
+      <c r="M3" s="30">
         <v>308</v>
       </c>
-      <c r="N3" s="28">
+      <c r="N3" s="30">
         <v>5</v>
       </c>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28" t="s">
-        <v>74</v>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="4">
@@ -2536,51 +2636,51 @@
       <c r="N4">
         <v>38</v>
       </c>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
       <c r="R4" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
       <c r="R5" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="R6" t="s">
-        <v>77</v>
-      </c>
-      <c r="T6" s="28" t="s">
-        <v>78</v>
+        <v>86</v>
+      </c>
+      <c r="T6" s="30" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="R7" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" ht="14.25">
       <c r="R8" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2613,42 +2713,42 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
-      <c r="A1" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="33" t="s">
+      <c r="A1" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="H1" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="I1" s="35" t="s">
+      <c r="D1" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="E1" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
+      <c r="F1" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
     </row>
     <row r="2" ht="14.25">
       <c r="A2">
@@ -2681,20 +2781,20 @@
       <c r="J2">
         <v>6</v>
       </c>
-      <c r="K2" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="L2" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="M2" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="P2" s="36"/>
+      <c r="K2" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="M2" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="P2" s="37"/>
     </row>
     <row r="3" ht="14.25">
       <c r="A3">
@@ -2703,10 +2803,10 @@
       <c r="B3">
         <v>225</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="30">
         <v>10</v>
       </c>
-      <c r="D3" s="28">
+      <c r="D3" s="30">
         <v>15</v>
       </c>
       <c r="E3">
@@ -2727,21 +2827,21 @@
       <c r="J3">
         <v>56</v>
       </c>
-      <c r="K3" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="L3" s="18"/>
+      <c r="K3" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="L3" s="20"/>
       <c r="M3" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="N3" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="O3" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="P3" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" ht="14.25">
@@ -2751,10 +2851,10 @@
       <c r="B4" s="7">
         <v>27</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="30">
         <v>20</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="30">
         <v>30</v>
       </c>
       <c r="E4">
@@ -2775,11 +2875,11 @@
       <c r="J4">
         <v>20</v>
       </c>
-      <c r="K4" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="L4" s="18" t="s">
-        <v>93</v>
+      <c r="K4" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>102</v>
       </c>
       <c r="M4">
         <v>20</v>
@@ -2795,16 +2895,16 @@
       </c>
     </row>
     <row r="5" ht="14.25">
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="K5" s="18"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="K5" s="20"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
     </row>
     <row r="6" ht="14.25">
-      <c r="K6" s="18"/>
+      <c r="K6" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2830,108 +2930,108 @@
   <sheetData>
     <row r="1" ht="14.25">
       <c r="A1" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>41</v>
+        <v>103</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="2" ht="14.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="21">
+      <c r="A2" s="30"/>
+      <c r="B2" s="23">
         <v>343</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="23">
         <v>0</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
     </row>
     <row r="3" ht="14.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="16">
+      <c r="A3" s="30"/>
+      <c r="B3" s="18">
         <v>342</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="18">
         <v>45</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
     </row>
     <row r="4" ht="14.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="13">
+      <c r="A4" s="30"/>
+      <c r="B4" s="15">
         <v>340</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="15">
         <v>10</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="15">
         <v>317</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="15">
         <v>0</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" ht="14.25">
-      <c r="A5" s="28"/>
-      <c r="B5" s="23">
+      <c r="A5" s="30"/>
+      <c r="B5" s="25">
         <v>339</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="25">
         <v>28</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="25">
         <v>315</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="25">
         <v>1</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" ht="14.25">
-      <c r="B6" s="24">
+      <c r="B6" s="26">
         <v>338</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="26">
         <v>30</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
     </row>
     <row r="7" ht="14.25"/>
     <row r="8" ht="14.25"/>

--- a/20240523spettrometria/dati_sottrometria.xlsx
+++ b/20240523spettrometria/dati_sottrometria.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ERRORI" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,17 +11,18 @@
     <sheet name="alpha" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="composto_misterioso_prisma" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="reticolo300" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="reticoloIgnoto" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="PRISMA Hg" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="incognito 2" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="reticolo600" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="calibrazione reticolo 300" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="reticoloIgnoto" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="PRISMA Hg" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="incognito 2" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="reticolo600" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t xml:space="preserve">SARA deg</t>
   </si>
@@ -173,48 +174,48 @@
     <t>acqua</t>
   </si>
   <si>
-    <t>Na</t>
+    <t xml:space="preserve">n1 deg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n1 prim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n2 deg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n2 prim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n3 deg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n3 prim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-n1 deg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-n1 prim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-n2 deg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-n2 prim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-n3 deg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-n3 prim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lampada Na</t>
   </si>
   <si>
     <t>CALIBRAZIONE</t>
   </si>
   <si>
-    <t xml:space="preserve">n1 deg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n1 prim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n2 deg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n2 prim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n3 deg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n3 prim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-n1 deg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-n1 prim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-n2 deg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-n2 prim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-n3 deg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-n3 prim</t>
-  </si>
-  <si>
     <t>ordine</t>
   </si>
   <si>
@@ -228,9 +229,6 @@
   </si>
   <si>
     <t xml:space="preserve">beta 2 prim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lampada Na</t>
   </si>
   <si>
     <t xml:space="preserve">gas ignoto</t>
@@ -548,7 +546,7 @@
     <xf fontId="0" fillId="7" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
     <xf fontId="3" fillId="8" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="4" fillId="2" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf fontId="4" fillId="3" borderId="0" numFmtId="0" xfId="2" applyFont="1" applyFill="1"/>
@@ -563,19 +561,18 @@
     <xf fontId="5" fillId="12" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf fontId="2" fillId="6" borderId="0" numFmtId="0" xfId="5" applyFont="1" applyFill="1"/>
     <xf fontId="0" fillId="13" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="13" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="14" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="15" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="16" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="0" fillId="13" borderId="0" numFmtId="0" xfId="0" applyFill="1">
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="0" fillId="17" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf fontId="0" fillId="18" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="16" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="9" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
@@ -1375,6 +1372,133 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" ht="14.25">
+      <c r="A1" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25">
+      <c r="A2" s="29"/>
+      <c r="B2" s="22">
+        <v>343</v>
+      </c>
+      <c r="C2" s="22">
+        <v>0</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+    </row>
+    <row r="3" ht="14.25">
+      <c r="A3" s="29"/>
+      <c r="B3" s="17">
+        <v>342</v>
+      </c>
+      <c r="C3" s="17">
+        <v>45</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="A4" s="29"/>
+      <c r="B4" s="14">
+        <v>340</v>
+      </c>
+      <c r="C4" s="14">
+        <v>10</v>
+      </c>
+      <c r="D4" s="14">
+        <v>317</v>
+      </c>
+      <c r="E4" s="14">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="A5" s="29"/>
+      <c r="B5" s="24">
+        <v>339</v>
+      </c>
+      <c r="C5" s="24">
+        <v>28</v>
+      </c>
+      <c r="D5" s="24">
+        <v>315</v>
+      </c>
+      <c r="E5" s="24">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="B6" s="25">
+        <v>338</v>
+      </c>
+      <c r="C6" s="25">
+        <v>30</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+    </row>
+    <row r="7" ht="14.25"/>
+    <row r="8" ht="14.25"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F2:N3"/>
+  </mergeCells>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
@@ -1890,31 +2014,31 @@
       <c r="E1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="17" t="s">
         <v>36</v>
       </c>
       <c r="O1" t="s">
@@ -2049,248 +2173,181 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="J1" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col customWidth="1" min="3" max="3" width="12.57421875"/>
-    <col customWidth="1" min="4" max="4" width="13.57421875"/>
-    <col customWidth="1" min="5" max="5" width="12.00390625"/>
-    <col customWidth="1" min="6" max="6" width="11.421875"/>
-  </cols>
   <sheetData>
     <row r="1" ht="14.25">
-      <c r="A1" t="s">
+      <c r="A1" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="20" t="s">
+      <c r="C1" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="D1" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="E1" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="F1" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="G1" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="H1" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="I1" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="J1" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="K1" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="L1" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="Q1" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="R1" s="20" t="s">
-        <v>63</v>
+      <c r="M1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="2" ht="14.25">
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="14">
+      <c r="A2" s="13">
         <v>10</v>
       </c>
-      <c r="H2" s="14">
+      <c r="B2" s="13">
         <v>20</v>
       </c>
-      <c r="I2" s="21">
+      <c r="C2" s="19">
         <v>21</v>
       </c>
-      <c r="J2" s="21">
+      <c r="D2" s="19">
         <v>10</v>
       </c>
-      <c r="K2" s="21">
+      <c r="E2" s="19">
         <v>32</v>
       </c>
-      <c r="L2" s="21">
+      <c r="F2" s="19">
         <v>30</v>
       </c>
-      <c r="M2" s="21">
+      <c r="G2" s="19">
         <v>349</v>
       </c>
-      <c r="N2" s="14">
+      <c r="H2" s="13">
         <v>40</v>
       </c>
-      <c r="O2" s="21">
+      <c r="I2" s="19">
         <v>339</v>
       </c>
-      <c r="P2" s="21">
+      <c r="J2" s="19">
         <v>5</v>
       </c>
-      <c r="Q2" s="14">
+      <c r="K2" s="13">
         <v>327</v>
       </c>
-      <c r="R2" s="14">
+      <c r="L2" s="13">
         <v>32</v>
       </c>
-      <c r="S2" s="14" t="s">
+      <c r="M2" s="13" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" ht="14.25">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="18">
+      <c r="A3" s="17">
         <v>8</v>
       </c>
-      <c r="H3" s="18">
+      <c r="B3" s="17">
         <v>40</v>
       </c>
-      <c r="I3" s="18">
+      <c r="C3" s="17">
         <v>17</v>
       </c>
-      <c r="J3" s="18">
+      <c r="D3" s="17">
         <v>35</v>
       </c>
-      <c r="K3" s="18">
+      <c r="E3" s="17">
         <v>27</v>
       </c>
-      <c r="L3" s="18">
+      <c r="F3" s="17">
         <v>0</v>
       </c>
-      <c r="M3" s="18">
+      <c r="G3" s="17">
         <v>351</v>
       </c>
-      <c r="N3" s="18">
+      <c r="H3" s="17">
         <v>18</v>
       </c>
-      <c r="O3" s="18">
+      <c r="I3" s="17">
         <v>342</v>
       </c>
-      <c r="P3" s="18">
+      <c r="J3" s="17">
         <v>20</v>
       </c>
-      <c r="Q3" s="18">
+      <c r="K3" s="17">
         <v>332</v>
       </c>
-      <c r="R3" s="18">
+      <c r="L3" s="17">
         <v>54</v>
       </c>
-      <c r="S3" s="18" t="s">
+      <c r="M3" s="17" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" ht="14.25">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="22">
+      <c r="A4" s="20">
         <v>9</v>
       </c>
-      <c r="H4" s="22">
+      <c r="B4" s="20">
         <v>55</v>
       </c>
-      <c r="I4" s="22">
+      <c r="C4" s="20">
         <v>20</v>
       </c>
-      <c r="J4" s="22">
+      <c r="D4" s="20">
         <v>10</v>
       </c>
-      <c r="K4" s="22">
+      <c r="E4" s="20">
         <v>31</v>
       </c>
-      <c r="L4" s="22">
+      <c r="F4" s="20">
         <v>20</v>
       </c>
-      <c r="M4" s="22">
+      <c r="G4" s="20">
         <v>350</v>
       </c>
-      <c r="N4" s="22">
+      <c r="H4" s="20">
         <v>0</v>
       </c>
-      <c r="O4" s="22">
+      <c r="I4" s="20">
         <v>339</v>
       </c>
-      <c r="P4" s="22">
+      <c r="J4" s="20">
         <v>45</v>
       </c>
-      <c r="Q4" s="22">
+      <c r="K4" s="20">
         <v>328</v>
       </c>
-      <c r="R4" s="22">
+      <c r="L4" s="20">
         <v>40</v>
       </c>
-      <c r="S4" s="22" t="s">
+      <c r="M4" s="20" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" ht="14.25">
-      <c r="A5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>339</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>21</v>
-      </c>
-      <c r="F5">
-        <v>10</v>
-      </c>
-    </row>
+    <row r="5" ht="14.25"/>
     <row r="6" ht="14.25"/>
-    <row r="7" ht="14.25">
-      <c r="D7" t="s">
-        <v>69</v>
-      </c>
-    </row>
+    <row r="7" ht="14.25"/>
     <row r="8" ht="14.25"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:F3"/>
-  </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
@@ -2309,129 +2366,74 @@
   <sheetData>
     <row r="1" ht="14.25">
       <c r="A1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>57</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" ht="14.25">
-      <c r="B2" s="23">
-        <v>352</v>
-      </c>
-      <c r="C2" s="23">
-        <v>20</v>
-      </c>
-      <c r="D2" s="23">
-        <v>344</v>
-      </c>
-      <c r="E2" s="23">
-        <v>30</v>
-      </c>
-      <c r="F2" s="23">
-        <v>336</v>
-      </c>
-      <c r="G2" s="23">
-        <v>30</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>71</v>
-      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" ht="14.25">
-      <c r="B3" s="18">
-        <v>351</v>
-      </c>
-      <c r="C3" s="18">
-        <v>15</v>
-      </c>
-      <c r="D3" s="18">
-        <v>342</v>
-      </c>
-      <c r="E3" s="18">
-        <v>33</v>
-      </c>
-      <c r="F3" s="18">
-        <v>332</v>
-      </c>
-      <c r="G3" s="24">
-        <v>56</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>72</v>
-      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
     </row>
     <row r="4" ht="14.25">
-      <c r="B4" s="15">
-        <v>350</v>
-      </c>
-      <c r="C4" s="15">
-        <v>20</v>
-      </c>
-      <c r="D4" s="15">
-        <v>340</v>
-      </c>
-      <c r="E4" s="15">
-        <v>30</v>
-      </c>
-      <c r="F4" s="15">
-        <v>330</v>
-      </c>
-      <c r="G4" s="15">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" ht="14.25">
-      <c r="B5" s="25">
-        <v>349</v>
-      </c>
-      <c r="C5" s="25">
-        <v>51</v>
-      </c>
-      <c r="D5" s="25">
+      <c r="C5">
         <v>339</v>
       </c>
-      <c r="E5" s="25">
-        <v>20</v>
-      </c>
-      <c r="F5" s="25">
-        <v>328</v>
-      </c>
-      <c r="G5" s="25">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25"/>
-    <row r="7" ht="14.25"/>
-    <row r="8" ht="14.25">
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" ht="14.25"/>
-    <row r="10" ht="14.25"/>
-    <row r="11" ht="14.25"/>
-    <row r="12" ht="14.25"/>
-    <row r="13" ht="14.25"/>
-    <row r="14" ht="14.25"/>
-    <row r="15" ht="14.25"/>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>21</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:F3"/>
+  </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
@@ -2448,12 +2450,153 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
+    <row r="1" ht="14.25">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25">
+      <c r="B2" s="22">
+        <v>352</v>
+      </c>
+      <c r="C2" s="22">
+        <v>20</v>
+      </c>
+      <c r="D2" s="22">
+        <v>344</v>
+      </c>
+      <c r="E2" s="22">
+        <v>30</v>
+      </c>
+      <c r="F2" s="22">
+        <v>336</v>
+      </c>
+      <c r="G2" s="22">
+        <v>30</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25">
+      <c r="B3" s="17">
+        <v>351</v>
+      </c>
+      <c r="C3" s="17">
+        <v>15</v>
+      </c>
+      <c r="D3" s="17">
+        <v>342</v>
+      </c>
+      <c r="E3" s="17">
+        <v>33</v>
+      </c>
+      <c r="F3" s="17">
+        <v>332</v>
+      </c>
+      <c r="G3" s="23">
+        <v>56</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="B4" s="14">
+        <v>350</v>
+      </c>
+      <c r="C4" s="14">
+        <v>20</v>
+      </c>
+      <c r="D4" s="14">
+        <v>340</v>
+      </c>
+      <c r="E4" s="14">
+        <v>30</v>
+      </c>
+      <c r="F4" s="14">
+        <v>330</v>
+      </c>
+      <c r="G4" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="B5" s="24">
+        <v>349</v>
+      </c>
+      <c r="C5" s="24">
+        <v>51</v>
+      </c>
+      <c r="D5" s="24">
+        <v>339</v>
+      </c>
+      <c r="E5" s="24">
+        <v>20</v>
+      </c>
+      <c r="F5" s="24">
+        <v>328</v>
+      </c>
+      <c r="G5" s="24">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25"/>
+    <row r="7" ht="14.25"/>
+    <row r="8" ht="14.25">
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" ht="14.25"/>
+    <row r="10" ht="14.25"/>
+    <row r="11" ht="14.25"/>
+    <row r="12" ht="14.25"/>
+    <row r="13" ht="14.25"/>
+    <row r="14" ht="14.25"/>
+    <row r="15" ht="14.25"/>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
     <row r="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>74</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>75</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>9</v>
@@ -2467,11 +2610,11 @@
       <c r="F1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="26" t="s">
         <v>76</v>
-      </c>
-      <c r="H1" s="27" t="s">
-        <v>77</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>13</v>
@@ -2479,39 +2622,39 @@
       <c r="J1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="M1" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="M1" s="29" t="s">
+      <c r="N1" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="N1" s="29" t="s">
+      <c r="R1" t="s">
         <v>81</v>
       </c>
-      <c r="R1" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="30">
+      <c r="A2" s="29">
         <v>311</v>
       </c>
-      <c r="B2" s="30">
+      <c r="B2" s="29">
         <v>50</v>
       </c>
-      <c r="C2" s="30">
+      <c r="C2" s="29">
         <v>311</v>
       </c>
-      <c r="D2" s="30">
+      <c r="D2" s="29">
         <v>40</v>
       </c>
-      <c r="E2" s="30">
+      <c r="E2" s="29">
         <v>311</v>
       </c>
-      <c r="F2" s="30">
+      <c r="F2" s="29">
         <v>0</v>
       </c>
       <c r="G2">
@@ -2520,10 +2663,10 @@
       <c r="H2">
         <v>40</v>
       </c>
-      <c r="I2" s="30">
+      <c r="I2" s="29">
         <v>309</v>
       </c>
-      <c r="J2" s="30">
+      <c r="J2" s="29">
         <v>30</v>
       </c>
       <c r="K2">
@@ -2532,34 +2675,34 @@
       <c r="L2">
         <v>40</v>
       </c>
-      <c r="M2" s="30">
+      <c r="M2" s="29">
         <v>308</v>
       </c>
-      <c r="N2" s="30">
+      <c r="N2" s="29">
         <v>0</v>
       </c>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="31"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="30"/>
     </row>
     <row r="3">
-      <c r="A3" s="30">
+      <c r="A3" s="29">
         <v>312</v>
       </c>
-      <c r="B3" s="30">
+      <c r="B3" s="29">
         <v>0</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="29">
         <v>311</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="29">
         <v>40</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="29">
         <v>311</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="29">
         <v>20</v>
       </c>
       <c r="G3">
@@ -2568,10 +2711,10 @@
       <c r="H3">
         <v>40</v>
       </c>
-      <c r="I3" s="30">
+      <c r="I3" s="29">
         <v>309</v>
       </c>
-      <c r="J3" s="30">
+      <c r="J3" s="29">
         <v>35</v>
       </c>
       <c r="K3">
@@ -2580,17 +2723,17 @@
       <c r="L3">
         <v>40</v>
       </c>
-      <c r="M3" s="30">
+      <c r="M3" s="29">
         <v>308</v>
       </c>
-      <c r="N3" s="30">
+      <c r="N3" s="29">
         <v>5</v>
       </c>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30" t="s">
-        <v>83</v>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="4">
@@ -2640,19 +2783,19 @@
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
@@ -2662,25 +2805,25 @@
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="R6" t="s">
+        <v>85</v>
+      </c>
+      <c r="T6" s="29" t="s">
         <v>86</v>
-      </c>
-      <c r="T6" s="30" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="R7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" ht="14.25">
       <c r="R8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2691,7 +2834,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView zoomScale="100" workbookViewId="0">
@@ -2713,42 +2856,42 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="C1" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="35" t="s">
+      <c r="H1" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
+      <c r="M1" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
     </row>
     <row r="2" ht="14.25">
       <c r="A2">
@@ -2781,20 +2924,20 @@
       <c r="J2">
         <v>6</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="L2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="M2" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="M2" s="37" t="s">
+      <c r="N2" s="36"/>
+      <c r="O2" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="P2" s="37"/>
+      <c r="P2" s="36"/>
     </row>
     <row r="3" ht="14.25">
       <c r="A3">
@@ -2803,10 +2946,10 @@
       <c r="B3">
         <v>225</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="29">
         <v>10</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="29">
         <v>15</v>
       </c>
       <c r="E3">
@@ -2827,21 +2970,21 @@
       <c r="J3">
         <v>56</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="L3" s="18"/>
+      <c r="M3" t="s">
         <v>98</v>
       </c>
-      <c r="L3" s="20"/>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>99</v>
       </c>
-      <c r="N3" t="s">
-        <v>100</v>
-      </c>
       <c r="O3" t="s">
+        <v>98</v>
+      </c>
+      <c r="P3" t="s">
         <v>99</v>
-      </c>
-      <c r="P3" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="4" ht="14.25">
@@ -2851,10 +2994,10 @@
       <c r="B4" s="7">
         <v>27</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="29">
         <v>20</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="29">
         <v>30</v>
       </c>
       <c r="E4">
@@ -2875,11 +3018,11 @@
       <c r="J4">
         <v>20</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="L4" s="18" t="s">
         <v>101</v>
-      </c>
-      <c r="L4" s="20" t="s">
-        <v>102</v>
       </c>
       <c r="M4">
         <v>20</v>
@@ -2895,16 +3038,16 @@
       </c>
     </row>
     <row r="5" ht="14.25">
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="K5" s="20"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="K5" s="18"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
     </row>
     <row r="6" ht="14.25">
-      <c r="K6" s="20"/>
+      <c r="K6" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2917,131 +3060,4 @@
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData>
-    <row r="1" ht="14.25">
-      <c r="A1" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="23">
-        <v>343</v>
-      </c>
-      <c r="C2" s="23">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-    </row>
-    <row r="3" ht="14.25">
-      <c r="A3" s="30"/>
-      <c r="B3" s="18">
-        <v>342</v>
-      </c>
-      <c r="C3" s="18">
-        <v>45</v>
-      </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-    </row>
-    <row r="4" ht="14.25">
-      <c r="A4" s="30"/>
-      <c r="B4" s="15">
-        <v>340</v>
-      </c>
-      <c r="C4" s="15">
-        <v>10</v>
-      </c>
-      <c r="D4" s="15">
-        <v>317</v>
-      </c>
-      <c r="E4" s="15">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="25">
-        <v>339</v>
-      </c>
-      <c r="C5" s="25">
-        <v>28</v>
-      </c>
-      <c r="D5" s="25">
-        <v>315</v>
-      </c>
-      <c r="E5" s="25">
-        <v>1</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25">
-      <c r="B6" s="26">
-        <v>338</v>
-      </c>
-      <c r="C6" s="26">
-        <v>30</v>
-      </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-    </row>
-    <row r="7" ht="14.25"/>
-    <row r="8" ht="14.25"/>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F2:N3"/>
-  </mergeCells>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/20240523spettrometria/dati_sottrometria.xlsx
+++ b/20240523spettrometria/dati_sottrometria.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="ERRORI" sheetId="1" state="visible" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t xml:space="preserve">SARA deg</t>
   </si>
@@ -229,9 +229,6 @@
   </si>
   <si>
     <t xml:space="preserve">beta 2 prim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gas ignoto</t>
   </si>
   <si>
     <t xml:space="preserve">(si vede anche la frangia blu del 4 ordine)</t>
@@ -1383,7 +1380,7 @@
   <sheetData>
     <row r="1" ht="14.25">
       <c r="A1" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>50</v>
@@ -1409,7 +1406,7 @@
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
       <c r="F2" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
@@ -1455,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" ht="14.25">
@@ -1473,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" ht="14.25">
@@ -2452,7 +2449,7 @@
   <sheetData>
     <row r="1" ht="14.25">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>50</v>
@@ -2474,6 +2471,9 @@
       </c>
     </row>
     <row r="2" ht="14.25">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
       <c r="B2" s="22">
         <v>352</v>
       </c>
@@ -2493,10 +2493,13 @@
         <v>30</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" ht="14.25">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
       <c r="B3" s="17">
         <v>351</v>
       </c>
@@ -2516,10 +2519,13 @@
         <v>56</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" ht="14.25">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
       <c r="B4" s="14">
         <v>350</v>
       </c>
@@ -2540,6 +2546,9 @@
       </c>
     </row>
     <row r="5" ht="14.25">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
       <c r="B5" s="24">
         <v>349</v>
       </c>
@@ -2559,7 +2568,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" ht="14.25"/>
@@ -2593,10 +2602,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>73</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>74</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>9</v>
@@ -2611,10 +2620,10 @@
         <v>12</v>
       </c>
       <c r="G1" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="26" t="s">
         <v>75</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>76</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>13</v>
@@ -2623,19 +2632,19 @@
         <v>14</v>
       </c>
       <c r="K1" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="L1" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="M1" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="N1" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="R1" t="s">
         <v>80</v>
-      </c>
-      <c r="R1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2">
@@ -2733,7 +2742,7 @@
       <c r="P3" s="29"/>
       <c r="Q3" s="29"/>
       <c r="R3" s="29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4">
@@ -2783,7 +2792,7 @@
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5">
@@ -2805,25 +2814,25 @@
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
       <c r="R6" t="s">
+        <v>84</v>
+      </c>
+      <c r="T6" s="29" t="s">
         <v>85</v>
-      </c>
-      <c r="T6" s="29" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="R7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" ht="14.25">
       <c r="R8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2857,10 +2866,10 @@
   <sheetData>
     <row r="1" ht="14.25">
       <c r="A1" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>89</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>90</v>
       </c>
       <c r="C1" s="32" t="s">
         <v>27</v>
@@ -2875,10 +2884,10 @@
         <v>30</v>
       </c>
       <c r="G1" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" s="34" t="s">
         <v>91</v>
-      </c>
-      <c r="H1" s="34" t="s">
-        <v>92</v>
       </c>
       <c r="I1" s="35" t="s">
         <v>31</v>
@@ -2925,17 +2934,17 @@
         <v>6</v>
       </c>
       <c r="K2" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="L2" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="M2" s="36" t="s">
         <v>94</v>
-      </c>
-      <c r="M2" s="36" t="s">
-        <v>95</v>
       </c>
       <c r="N2" s="36"/>
       <c r="O2" s="36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P2" s="36"/>
     </row>
@@ -2971,20 +2980,20 @@
         <v>56</v>
       </c>
       <c r="K3" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L3" s="18"/>
       <c r="M3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N3" t="s">
         <v>98</v>
       </c>
-      <c r="N3" t="s">
-        <v>99</v>
-      </c>
       <c r="O3" t="s">
+        <v>97</v>
+      </c>
+      <c r="P3" t="s">
         <v>98</v>
-      </c>
-      <c r="P3" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="4" ht="14.25">
@@ -3019,10 +3028,10 @@
         <v>20</v>
       </c>
       <c r="K4" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="L4" s="18" t="s">
         <v>100</v>
-      </c>
-      <c r="L4" s="18" t="s">
-        <v>101</v>
       </c>
       <c r="M4">
         <v>20</v>

--- a/20240523spettrometria/dati_sottrometria.xlsx
+++ b/20240523spettrometria/dati_sottrometria.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="6"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="ERRORI" sheetId="1" state="visible" r:id="rId1"/>
@@ -3046,18 +3046,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" ht="14.25">
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="K5" s="18"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-    </row>
-    <row r="6" ht="14.25">
-      <c r="K6" s="18"/>
-    </row>
+    <row r="5" ht="14.25"/>
+    <row r="6" ht="14.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="M1:P1"/>

--- a/20240523spettrometria/dati_sottrometria.xlsx
+++ b/20240523spettrometria/dati_sottrometria.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t xml:space="preserve">SARA deg</t>
   </si>
@@ -298,6 +298,9 @@
   </si>
   <si>
     <t>AZZURROprim</t>
+  </si>
+  <si>
+    <t>strumento</t>
   </si>
   <si>
     <t>PRISMA</t>
@@ -1380,7 +1383,7 @@
   <sheetData>
     <row r="1" ht="14.25">
       <c r="A1" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>50</v>
@@ -1406,7 +1409,7 @@
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
       <c r="F2" s="21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
@@ -1452,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" ht="14.25">
@@ -1470,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" ht="14.25">
@@ -2895,6 +2898,9 @@
       <c r="J1" s="35" t="s">
         <v>32</v>
       </c>
+      <c r="K1" t="s">
+        <v>92</v>
+      </c>
       <c r="M1" s="36" t="s">
         <v>63</v>
       </c>
@@ -2934,17 +2940,17 @@
         <v>6</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M2" s="36" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N2" s="36"/>
       <c r="O2" s="36" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P2" s="36"/>
     </row>
@@ -2980,20 +2986,20 @@
         <v>56</v>
       </c>
       <c r="K3" s="18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L3" s="18"/>
       <c r="M3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N3" t="s">
+        <v>99</v>
+      </c>
+      <c r="O3" t="s">
         <v>98</v>
       </c>
-      <c r="O3" t="s">
-        <v>97</v>
-      </c>
       <c r="P3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" ht="14.25">
@@ -3028,10 +3034,10 @@
         <v>20</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M4">
         <v>20</v>

--- a/20240523spettrometria/dati_sottrometria.xlsx
+++ b/20240523spettrometria/dati_sottrometria.xlsx
@@ -2959,7 +2959,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>225</v>
+        <v>25</v>
       </c>
       <c r="C3" s="29">
         <v>10</v>

--- a/20240523spettrometria/dati_sottrometria.xlsx
+++ b/20240523spettrometria/dati_sottrometria.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="8"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ERRORI" sheetId="1" state="visible" r:id="rId1"/>
@@ -2363,6 +2363,12 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="18.28125"/>
+    <col customWidth="1" min="3" max="3" width="11.28125"/>
+    <col customWidth="1" min="4" max="5" width="13.00390625"/>
+    <col customWidth="1" min="6" max="6" width="12.57421875"/>
+  </cols>
   <sheetData>
     <row r="1" ht="14.25">
       <c r="A1" t="s">
